--- a/Image_Analysis/tissue_im_test.xlsx
+++ b/Image_Analysis/tissue_im_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tfai/Documents/GitHub/Minimal-Lung-Model/Image_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F61DE3E-EEEC-334E-B82B-A75F2B254E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E9287B-3DAA-7D40-BF47-00CB24C139D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="30">
   <si>
     <t>slide</t>
   </si>
@@ -469,14 +469,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -484,10 +483,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -542,10 +539,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,70 +566,28 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79995117038483843"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+        <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -658,17 +613,32 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <top style="thin">
           <color indexed="64"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -694,6 +664,13 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -732,15 +709,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36E7EB3B-F743-C64E-BCA9-2E0C77662A2B}" name="Table1" displayName="Table1" ref="A1:F1048576" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:F1048576" xr:uid="{36E7EB3B-F743-C64E-BCA9-2E0C77662A2B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36E7EB3B-F743-C64E-BCA9-2E0C77662A2B}" name="Table1" displayName="Table1" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:E1048576" xr:uid="{36E7EB3B-F743-C64E-BCA9-2E0C77662A2B}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{9AD57965-9742-CB4B-8E96-592068280CA3}" name="Slide #" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{07DB2A3C-D279-B448-B505-D1853BF97753}" name="AN Tx" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{4C6FC9D7-5647-444C-A345-DCEBD5C77DA7}" name="Ventilation" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{5EFB8D54-3B69-0645-A689-2E8216A3F563}" name="MLI" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{C1A74CC1-FDD3-004D-85A2-9CD608687908}" name="Animal Number" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{1135192B-B1CC-E94F-A44B-1E64952BCB1D}" name="Age" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{9AD57965-9742-CB4B-8E96-592068280CA3}" name="Slide #" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{07DB2A3C-D279-B448-B505-D1853BF97753}" name="AN Tx" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{C1A74CC1-FDD3-004D-85A2-9CD608687908}" name="Animal Number" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{1135192B-B1CC-E94F-A44B-1E64952BCB1D}" name="Ventilation" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{74462D50-5C7E-E34E-9E24-1D9660AC9CF6}" name="MLI" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{72CB6C3F-98F6-D840-82E6-7226BF0BB3DF}" name="Column2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1099,33 +1076,33 @@
       <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="66" t="s">
+      <c r="M1" s="63" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="47">
+      <c r="B2" s="44">
         <v>25</v>
       </c>
       <c r="C2">
@@ -1153,16 +1130,16 @@
       <c r="J2">
         <v>7.0670638876129113E-3</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <v>303</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="8">
+      <c r="M2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="7">
         <v>16.085750398747635</v>
       </c>
     </row>
@@ -1170,7 +1147,7 @@
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="44">
         <v>25</v>
       </c>
       <c r="C3">
@@ -1198,16 +1175,16 @@
       <c r="J3">
         <v>7.150732443798046E-3</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>303</v>
       </c>
-      <c r="L3" s="46" t="s">
+      <c r="L3" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="8">
+      <c r="M3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="7">
         <v>16.085750398747635</v>
       </c>
     </row>
@@ -1215,7 +1192,7 @@
       <c r="A4">
         <v>0</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="44">
         <v>25</v>
       </c>
       <c r="C4">
@@ -1243,16 +1220,16 @@
       <c r="J4">
         <v>7.4101005728745015E-3</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>303</v>
       </c>
-      <c r="L4" s="46" t="s">
+      <c r="L4" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="8">
+      <c r="M4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="7">
         <v>16.085750398747599</v>
       </c>
     </row>
@@ -1260,7 +1237,7 @@
       <c r="A5">
         <v>0</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="44">
         <v>25</v>
       </c>
       <c r="C5">
@@ -1288,16 +1265,16 @@
       <c r="J5">
         <v>6.5855588825447812E-3</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>303</v>
       </c>
-      <c r="L5" s="46" t="s">
+      <c r="L5" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="8">
+      <c r="M5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="7">
         <v>16.085750398747599</v>
       </c>
     </row>
@@ -1305,7 +1282,7 @@
       <c r="A6">
         <v>0</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="44">
         <v>25</v>
       </c>
       <c r="C6">
@@ -1333,16 +1310,16 @@
       <c r="J6">
         <v>6.6140511794689104E-3</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>303</v>
       </c>
-      <c r="L6" s="46" t="s">
+      <c r="L6" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="8">
+      <c r="M6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="7">
         <v>16.085750398747599</v>
       </c>
     </row>
@@ -1350,7 +1327,7 @@
       <c r="A7">
         <v>0</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="44">
         <v>25</v>
       </c>
       <c r="C7">
@@ -1378,16 +1355,16 @@
       <c r="J7">
         <v>7.3134675442342563E-3</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>303</v>
       </c>
-      <c r="L7" s="46" t="s">
+      <c r="L7" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="8">
+      <c r="M7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="7">
         <v>16.085750398747599</v>
       </c>
     </row>
@@ -1395,7 +1372,7 @@
       <c r="A8">
         <v>0</v>
       </c>
-      <c r="B8" s="47">
+      <c r="B8" s="44">
         <v>25</v>
       </c>
       <c r="C8">
@@ -1423,16 +1400,16 @@
       <c r="J8">
         <v>7.2236554483432434E-3</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <v>303</v>
       </c>
-      <c r="L8" s="46" t="s">
+      <c r="L8" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" s="8">
+      <c r="M8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="7">
         <v>16.085750398747599</v>
       </c>
     </row>
@@ -1440,7 +1417,7 @@
       <c r="A9">
         <v>0</v>
       </c>
-      <c r="B9" s="47">
+      <c r="B9" s="44">
         <v>25</v>
       </c>
       <c r="C9">
@@ -1468,16 +1445,16 @@
       <c r="J9">
         <v>7.273960319288052E-3</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>303</v>
       </c>
-      <c r="L9" s="46" t="s">
+      <c r="L9" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="8">
+      <c r="M9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="7">
         <v>16.085750398747599</v>
       </c>
     </row>
@@ -1485,7 +1462,7 @@
       <c r="A10">
         <v>0</v>
       </c>
-      <c r="B10" s="47">
+      <c r="B10" s="44">
         <v>25</v>
       </c>
       <c r="C10">
@@ -1513,16 +1490,16 @@
       <c r="J10">
         <v>7.0230779712313895E-3</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <v>303</v>
       </c>
-      <c r="L10" s="46" t="s">
+      <c r="L10" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="8">
+      <c r="M10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="7">
         <v>16.085750398747599</v>
       </c>
     </row>
@@ -1530,7 +1507,7 @@
       <c r="A11">
         <v>0</v>
       </c>
-      <c r="B11" s="49">
+      <c r="B11" s="46">
         <v>26</v>
       </c>
       <c r="C11">
@@ -1558,16 +1535,16 @@
       <c r="J11">
         <v>8.2489920919795456E-3</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <v>315</v>
       </c>
-      <c r="L11" s="48" t="s">
+      <c r="L11" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="M11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="7">
         <v>18.337374858653217</v>
       </c>
     </row>
@@ -1575,7 +1552,7 @@
       <c r="A12">
         <v>0</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12" s="46">
         <v>26</v>
       </c>
       <c r="C12">
@@ -1603,16 +1580,16 @@
       <c r="J12">
         <v>8.727879707501069E-3</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <v>315</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="M12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="7">
         <v>18.337374858653217</v>
       </c>
     </row>
@@ -1620,7 +1597,7 @@
       <c r="A13">
         <v>0</v>
       </c>
-      <c r="B13" s="49">
+      <c r="B13" s="46">
         <v>26</v>
       </c>
       <c r="C13">
@@ -1648,16 +1625,16 @@
       <c r="J13">
         <v>8.120848029954714E-3</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <v>315</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="7">
         <v>18.337374858653199</v>
       </c>
     </row>
@@ -1665,7 +1642,7 @@
       <c r="A14">
         <v>0</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="46">
         <v>26</v>
       </c>
       <c r="C14">
@@ -1693,16 +1670,16 @@
       <c r="J14">
         <v>7.9168695613269103E-3</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <v>315</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="M14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="7">
         <v>18.337374858653199</v>
       </c>
     </row>
@@ -1710,7 +1687,7 @@
       <c r="A15">
         <v>0</v>
       </c>
-      <c r="B15" s="49">
+      <c r="B15" s="46">
         <v>26</v>
       </c>
       <c r="C15">
@@ -1738,16 +1715,16 @@
       <c r="J15">
         <v>8.1100337761286449E-3</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <v>315</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="L15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="M15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="7">
         <v>18.337374858653199</v>
       </c>
     </row>
@@ -1755,7 +1732,7 @@
       <c r="A16">
         <v>0</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="46">
         <v>26</v>
       </c>
       <c r="C16">
@@ -1783,16 +1760,16 @@
       <c r="J16">
         <v>8.0233055110321017E-3</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <v>315</v>
       </c>
-      <c r="L16" s="15" t="s">
+      <c r="L16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="M16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="7">
         <v>18.337374858653199</v>
       </c>
     </row>
@@ -1800,7 +1777,7 @@
       <c r="A17">
         <v>0</v>
       </c>
-      <c r="B17" s="49">
+      <c r="B17" s="46">
         <v>26</v>
       </c>
       <c r="C17">
@@ -1828,16 +1805,16 @@
       <c r="J17">
         <v>8.266353163766272E-3</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="7">
         <v>315</v>
       </c>
-      <c r="L17" s="15" t="s">
+      <c r="L17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M17" s="10" t="s">
+      <c r="M17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="7">
         <v>18.337374858653199</v>
       </c>
     </row>
@@ -1845,7 +1822,7 @@
       <c r="A18">
         <v>0</v>
       </c>
-      <c r="B18" s="49">
+      <c r="B18" s="46">
         <v>26</v>
       </c>
       <c r="C18">
@@ -1873,16 +1850,16 @@
       <c r="J18">
         <v>8.4969092350853145E-3</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="7">
         <v>315</v>
       </c>
-      <c r="L18" s="15" t="s">
+      <c r="L18" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M18" s="10" t="s">
+      <c r="M18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="7">
         <v>18.337374858653199</v>
       </c>
     </row>
@@ -1890,7 +1867,7 @@
       <c r="A19">
         <v>0</v>
       </c>
-      <c r="B19" s="49">
+      <c r="B19" s="46">
         <v>26</v>
       </c>
       <c r="C19">
@@ -1918,16 +1895,16 @@
       <c r="J19">
         <v>7.8492016363156513E-3</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="7">
         <v>315</v>
       </c>
-      <c r="L19" s="15" t="s">
+      <c r="L19" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="M19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="7">
         <v>18.337374858653199</v>
       </c>
     </row>
@@ -1935,7 +1912,7 @@
       <c r="A20">
         <v>0</v>
       </c>
-      <c r="B20" s="47">
+      <c r="B20" s="44">
         <v>27</v>
       </c>
       <c r="C20">
@@ -1963,16 +1940,16 @@
       <c r="J20">
         <v>7.1334153984896802E-3</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="7">
         <v>302</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="L20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M20" s="13" t="s">
+      <c r="M20" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="7">
         <v>10.927999498069793</v>
       </c>
     </row>
@@ -1980,7 +1957,7 @@
       <c r="A21">
         <v>0</v>
       </c>
-      <c r="B21" s="47">
+      <c r="B21" s="44">
         <v>27</v>
       </c>
       <c r="C21">
@@ -2008,16 +1985,16 @@
       <c r="J21">
         <v>6.8669624053412197E-3</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="7">
         <v>302</v>
       </c>
-      <c r="L21" s="9" t="s">
+      <c r="L21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M21" s="13" t="s">
+      <c r="M21" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="7">
         <v>10.927999498069793</v>
       </c>
     </row>
@@ -2025,7 +2002,7 @@
       <c r="A22">
         <v>0</v>
       </c>
-      <c r="B22" s="47">
+      <c r="B22" s="44">
         <v>27</v>
       </c>
       <c r="C22">
@@ -2053,16 +2030,16 @@
       <c r="J22">
         <v>6.6933283271797981E-3</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="7">
         <v>302</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="L22" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M22" s="13" t="s">
+      <c r="M22" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="7">
         <v>10.9279994980698</v>
       </c>
     </row>
@@ -2070,7 +2047,7 @@
       <c r="A23">
         <v>0</v>
       </c>
-      <c r="B23" s="47">
+      <c r="B23" s="44">
         <v>27</v>
       </c>
       <c r="C23">
@@ -2098,16 +2075,16 @@
       <c r="J23">
         <v>6.9273882759378538E-3</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="7">
         <v>302</v>
       </c>
-      <c r="L23" s="9" t="s">
+      <c r="L23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M23" s="13" t="s">
+      <c r="M23" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="7">
         <v>10.9279994980698</v>
       </c>
     </row>
@@ -2115,7 +2092,7 @@
       <c r="A24">
         <v>0</v>
       </c>
-      <c r="B24" s="47">
+      <c r="B24" s="44">
         <v>27</v>
       </c>
       <c r="C24">
@@ -2143,16 +2120,16 @@
       <c r="J24">
         <v>7.1523144151084284E-3</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="7">
         <v>302</v>
       </c>
-      <c r="L24" s="9" t="s">
+      <c r="L24" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M24" s="13" t="s">
+      <c r="M24" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24" s="7">
         <v>10.9279994980698</v>
       </c>
     </row>
@@ -2160,7 +2137,7 @@
       <c r="A25">
         <v>0</v>
       </c>
-      <c r="B25" s="47">
+      <c r="B25" s="44">
         <v>27</v>
       </c>
       <c r="C25">
@@ -2188,16 +2165,16 @@
       <c r="J25">
         <v>7.3577150820472509E-3</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="7">
         <v>302</v>
       </c>
-      <c r="L25" s="9" t="s">
+      <c r="L25" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M25" s="13" t="s">
+      <c r="M25" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N25" s="7">
         <v>10.9279994980698</v>
       </c>
     </row>
@@ -2205,7 +2182,7 @@
       <c r="A26">
         <v>0</v>
       </c>
-      <c r="B26" s="47">
+      <c r="B26" s="44">
         <v>27</v>
       </c>
       <c r="C26">
@@ -2233,16 +2210,16 @@
       <c r="J26">
         <v>7.177515559985778E-3</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="7">
         <v>302</v>
       </c>
-      <c r="L26" s="9" t="s">
+      <c r="L26" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M26" s="13" t="s">
+      <c r="M26" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N26" s="7">
         <v>10.9279994980698</v>
       </c>
     </row>
@@ -2250,7 +2227,7 @@
       <c r="A27">
         <v>0</v>
       </c>
-      <c r="B27" s="47">
+      <c r="B27" s="44">
         <v>27</v>
       </c>
       <c r="C27">
@@ -2278,16 +2255,16 @@
       <c r="J27">
         <v>6.248408151601788E-3</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="7">
         <v>302</v>
       </c>
-      <c r="L27" s="9" t="s">
+      <c r="L27" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M27" s="13" t="s">
+      <c r="M27" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="7">
         <v>10.9279994980698</v>
       </c>
     </row>
@@ -2295,7 +2272,7 @@
       <c r="A28">
         <v>0</v>
       </c>
-      <c r="B28" s="47">
+      <c r="B28" s="44">
         <v>27</v>
       </c>
       <c r="C28">
@@ -2323,16 +2300,16 @@
       <c r="J28">
         <v>6.4161482506720179E-3</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="7">
         <v>302</v>
       </c>
-      <c r="L28" s="9" t="s">
+      <c r="L28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M28" s="13" t="s">
+      <c r="M28" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N28" s="8">
+      <c r="N28" s="7">
         <v>10.9279994980698</v>
       </c>
     </row>
@@ -2340,7 +2317,7 @@
       <c r="A29">
         <v>0</v>
       </c>
-      <c r="B29" s="47">
+      <c r="B29" s="44">
         <v>27</v>
       </c>
       <c r="C29">
@@ -2368,16 +2345,16 @@
       <c r="J29">
         <v>6.9645064121768262E-3</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29" s="7">
         <v>302</v>
       </c>
-      <c r="L29" s="9" t="s">
+      <c r="L29" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M29" s="13" t="s">
+      <c r="M29" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N29" s="8">
+      <c r="N29" s="7">
         <v>10.9279994980698</v>
       </c>
     </row>
@@ -2409,10 +2386,10 @@
       <c r="I30">
         <v>150.99227551456957</v>
       </c>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
@@ -2442,10 +2419,10 @@
       <c r="I31">
         <v>143.9419400062846</v>
       </c>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
@@ -2475,10 +2452,10 @@
       <c r="I32">
         <v>151.37967420269922</v>
       </c>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
@@ -2508,10 +2485,10 @@
       <c r="I33">
         <v>144.53282193389734</v>
       </c>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
@@ -2541,10 +2518,10 @@
       <c r="I34">
         <v>155.44070381750259</v>
       </c>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
@@ -2574,10 +2551,10 @@
       <c r="I35">
         <v>137.64635646990962</v>
       </c>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
@@ -2607,10 +2584,10 @@
       <c r="I36">
         <v>151.40205089099373</v>
       </c>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
@@ -2640,10 +2617,10 @@
       <c r="I37">
         <v>121.35878502650654</v>
       </c>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
@@ -2673,10 +2650,10 @@
       <c r="I38">
         <v>140.38468724533402</v>
       </c>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
@@ -2706,10 +2683,10 @@
       <c r="I39">
         <v>136.98426188819735</v>
       </c>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
@@ -2739,10 +2716,10 @@
       <c r="I40">
         <v>136.10936055978524</v>
       </c>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41">
@@ -2772,10 +2749,10 @@
       <c r="I41">
         <v>130.18094967839576</v>
       </c>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42">
@@ -2805,10 +2782,10 @@
       <c r="I42">
         <v>134.32724885377877</v>
       </c>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43">
@@ -2838,10 +2815,10 @@
       <c r="I43">
         <v>129.49734627831714</v>
       </c>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44">
@@ -2871,10 +2848,10 @@
       <c r="I44">
         <v>126.79730970428099</v>
       </c>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45">
@@ -2904,10 +2881,10 @@
       <c r="I45">
         <v>141.81185292694727</v>
       </c>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46">
@@ -2937,10 +2914,10 @@
       <c r="I46">
         <v>136.45226328449596</v>
       </c>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
@@ -2970,10 +2947,10 @@
       <c r="I47">
         <v>140.40449592080293</v>
       </c>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48">
@@ -3003,10 +2980,10 @@
       <c r="I48">
         <v>157.08730796713112</v>
       </c>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
@@ -3036,10 +3013,10 @@
       <c r="I49">
         <v>124.69646602556492</v>
       </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
@@ -3069,10 +3046,10 @@
       <c r="I50">
         <v>125.03116789558437</v>
       </c>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
@@ -3300,10 +3277,10 @@
       <c r="I57">
         <v>147.10138605634867</v>
       </c>
-      <c r="K57" s="7"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58">
@@ -3333,10 +3310,10 @@
       <c r="I58">
         <v>124.39616791577444</v>
       </c>
-      <c r="K58" s="7"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59">
@@ -3366,10 +3343,10 @@
       <c r="I59">
         <v>112.30192627358952</v>
       </c>
-      <c r="K59" s="7"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60">
@@ -3399,10 +3376,10 @@
       <c r="I60">
         <v>117.27881655197392</v>
       </c>
-      <c r="K60" s="7"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61">
@@ -3432,10 +3409,10 @@
       <c r="I61">
         <v>110.15625989058191</v>
       </c>
-      <c r="K61" s="7"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="8"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62">
@@ -3465,10 +3442,10 @@
       <c r="I62">
         <v>126.28075155107885</v>
       </c>
-      <c r="K62" s="7"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63">
@@ -3498,10 +3475,10 @@
       <c r="I63">
         <v>142.801978997405</v>
       </c>
-      <c r="K63" s="7"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64">
@@ -3531,10 +3508,10 @@
       <c r="I64">
         <v>142.07052801213385</v>
       </c>
-      <c r="K64" s="7"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65">
@@ -3564,10 +3541,10 @@
       <c r="I65">
         <v>139.07871597103846</v>
       </c>
-      <c r="K65" s="7"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66">
@@ -3597,10 +3574,10 @@
       <c r="I66">
         <v>147.70810407373335</v>
       </c>
-      <c r="K66" s="7"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67">
@@ -3630,10 +3607,10 @@
       <c r="I67">
         <v>130.89306368828164</v>
       </c>
-      <c r="K67" s="7"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68">
@@ -3663,10 +3640,10 @@
       <c r="I68">
         <v>116.80433222297881</v>
       </c>
-      <c r="K68" s="7"/>
-      <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69">
@@ -3696,10 +3673,10 @@
       <c r="I69">
         <v>135.86487181886227</v>
       </c>
-      <c r="K69" s="7"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70">
@@ -3729,10 +3706,10 @@
       <c r="I70">
         <v>151.7426291037352</v>
       </c>
-      <c r="K70" s="7"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71">
@@ -3762,10 +3739,10 @@
       <c r="I71">
         <v>133.13433470313163</v>
       </c>
-      <c r="K71" s="7"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72">
@@ -3795,10 +3772,10 @@
       <c r="I72">
         <v>129.45843523294766</v>
       </c>
-      <c r="K72" s="7"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73">
@@ -3828,10 +3805,10 @@
       <c r="I73">
         <v>131.00309294843308</v>
       </c>
-      <c r="K73" s="7"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74">
@@ -3861,10 +3838,10 @@
       <c r="I74">
         <v>125.84472886493769</v>
       </c>
-      <c r="K74" s="7"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75">
@@ -3894,10 +3871,10 @@
       <c r="I75">
         <v>131.32098244991235</v>
       </c>
-      <c r="K75" s="7"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76">
@@ -3927,10 +3904,10 @@
       <c r="I76">
         <v>126.33130406920858</v>
       </c>
-      <c r="K76" s="7"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77">
@@ -3960,10 +3937,10 @@
       <c r="I77">
         <v>106.42835820895522</v>
       </c>
-      <c r="K77" s="7"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78">
@@ -3993,10 +3970,10 @@
       <c r="I78">
         <v>158.41077587191376</v>
       </c>
-      <c r="K78" s="7"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79">
@@ -4026,10 +4003,10 @@
       <c r="I79">
         <v>157.08967466747433</v>
       </c>
-      <c r="K79" s="7"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80">
@@ -4059,10 +4036,10 @@
       <c r="I80">
         <v>170.87670139562977</v>
       </c>
-      <c r="K80" s="7"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81">
@@ -4092,10 +4069,10 @@
       <c r="I81">
         <v>156.03248584784708</v>
       </c>
-      <c r="K81" s="7"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82">
@@ -4125,10 +4102,10 @@
       <c r="I82">
         <v>163.89540053005044</v>
       </c>
-      <c r="K82" s="7"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="8"/>
-      <c r="N82" s="8"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83">
@@ -4158,10 +4135,10 @@
       <c r="I83">
         <v>127.65590176870225</v>
       </c>
-      <c r="K83" s="7"/>
-      <c r="L83" s="8"/>
-      <c r="M83" s="8"/>
-      <c r="N83" s="8"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84">
@@ -4191,10 +4168,10 @@
       <c r="I84">
         <v>126.75868218171338</v>
       </c>
-      <c r="K84" s="7"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
-      <c r="N84" s="8"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85">
@@ -4224,10 +4201,10 @@
       <c r="I85">
         <v>124.56073964266209</v>
       </c>
-      <c r="K85" s="7"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="8"/>
-      <c r="N85" s="8"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86">
@@ -4257,10 +4234,10 @@
       <c r="I86">
         <v>131.11999920306025</v>
       </c>
-      <c r="K86" s="7"/>
-      <c r="L86" s="8"/>
-      <c r="M86" s="8"/>
-      <c r="N86" s="8"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87">
@@ -4290,10 +4267,10 @@
       <c r="I87">
         <v>139.4439790165988</v>
       </c>
-      <c r="K87" s="7"/>
-      <c r="L87" s="8"/>
-      <c r="M87" s="8"/>
-      <c r="N87" s="8"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88">
@@ -4323,10 +4300,10 @@
       <c r="I88">
         <v>103.98545401650969</v>
       </c>
-      <c r="K88" s="7"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="8"/>
-      <c r="N88" s="8"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89">
@@ -4356,10 +4333,10 @@
       <c r="I89">
         <v>101.93800956292527</v>
       </c>
-      <c r="K89" s="7"/>
-      <c r="L89" s="8"/>
-      <c r="M89" s="8"/>
-      <c r="N89" s="8"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90">
@@ -4389,10 +4366,10 @@
       <c r="I90">
         <v>109.29072859082997</v>
       </c>
-      <c r="K90" s="7"/>
-      <c r="L90" s="8"/>
-      <c r="M90" s="8"/>
-      <c r="N90" s="8"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91">
@@ -4422,10 +4399,10 @@
       <c r="I91">
         <v>107.44298560801755</v>
       </c>
-      <c r="K91" s="7"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="8"/>
-      <c r="N91" s="8"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="7"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92">
@@ -4455,10 +4432,10 @@
       <c r="I92">
         <v>115.8769487430248</v>
       </c>
-      <c r="K92" s="7"/>
-      <c r="L92" s="8"/>
-      <c r="M92" s="8"/>
-      <c r="N92" s="8"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93">
@@ -4488,10 +4465,10 @@
       <c r="I93">
         <v>129.19890818858562</v>
       </c>
-      <c r="K93" s="7"/>
-      <c r="L93" s="8"/>
-      <c r="M93" s="8"/>
-      <c r="N93" s="8"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94">
@@ -4521,10 +4498,10 @@
       <c r="I94">
         <v>128.77656159059759</v>
       </c>
-      <c r="K94" s="7"/>
-      <c r="L94" s="8"/>
-      <c r="M94" s="8"/>
-      <c r="N94" s="8"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95">
@@ -4554,10 +4531,10 @@
       <c r="I95">
         <v>126.11216250315418</v>
       </c>
-      <c r="K95" s="7"/>
-      <c r="L95" s="8"/>
-      <c r="M95" s="8"/>
-      <c r="N95" s="8"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96">
@@ -4587,10 +4564,10 @@
       <c r="I96">
         <v>124.89447656873625</v>
       </c>
-      <c r="K96" s="7"/>
-      <c r="L96" s="8"/>
-      <c r="M96" s="8"/>
-      <c r="N96" s="8"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97">
@@ -4620,10 +4597,10 @@
       <c r="I97">
         <v>130.29706750314713</v>
       </c>
-      <c r="K97" s="7"/>
-      <c r="L97" s="8"/>
-      <c r="M97" s="8"/>
-      <c r="N97" s="8"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="7"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98">
@@ -4653,10 +4630,10 @@
       <c r="I98">
         <v>148.77417235009946</v>
       </c>
-      <c r="K98" s="7"/>
-      <c r="L98" s="8"/>
-      <c r="M98" s="8"/>
-      <c r="N98" s="8"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="7"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99">
@@ -4686,10 +4663,10 @@
       <c r="I99">
         <v>143.84553786250851</v>
       </c>
-      <c r="K99" s="7"/>
-      <c r="L99" s="8"/>
-      <c r="M99" s="8"/>
-      <c r="N99" s="8"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="7"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100">
@@ -4719,10 +4696,10 @@
       <c r="I100">
         <v>147.57170561811094</v>
       </c>
-      <c r="K100" s="7"/>
-      <c r="L100" s="8"/>
-      <c r="M100" s="8"/>
-      <c r="N100" s="8"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101">
@@ -4752,10 +4729,10 @@
       <c r="I101">
         <v>149.90657082109954</v>
       </c>
-      <c r="K101" s="7"/>
-      <c r="L101" s="8"/>
-      <c r="M101" s="8"/>
-      <c r="N101" s="8"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="7"/>
+      <c r="M101" s="7"/>
+      <c r="N101" s="7"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102">
@@ -4785,10 +4762,10 @@
       <c r="I102">
         <v>143.4846659046438</v>
       </c>
-      <c r="K102" s="7"/>
-      <c r="L102" s="8"/>
-      <c r="M102" s="8"/>
-      <c r="N102" s="8"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="7"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103">
@@ -4818,10 +4795,10 @@
       <c r="I103">
         <v>127.47831100860463</v>
       </c>
-      <c r="K103" s="7"/>
-      <c r="L103" s="8"/>
-      <c r="M103" s="8"/>
-      <c r="N103" s="8"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="7"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104">
@@ -4851,10 +4828,10 @@
       <c r="I104">
         <v>131.5028951135611</v>
       </c>
-      <c r="K104" s="7"/>
-      <c r="L104" s="8"/>
-      <c r="M104" s="8"/>
-      <c r="N104" s="8"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="7"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="7"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105">
@@ -5294,16 +5271,16 @@
         <f t="shared" ref="J119:J150" si="1">1/I119</f>
         <v>9.6707154066621934E-3</v>
       </c>
-      <c r="K119" s="59">
+      <c r="K119" s="56">
         <v>217</v>
       </c>
-      <c r="L119" s="60" t="s">
+      <c r="L119" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="M119" s="64" t="s">
+      <c r="M119" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="N119" s="59">
+      <c r="N119" s="56">
         <v>28.857949839922696</v>
       </c>
     </row>
@@ -5339,16 +5316,16 @@
         <f t="shared" si="1"/>
         <v>9.5855478078961161E-3</v>
       </c>
-      <c r="K120" s="59">
+      <c r="K120" s="56">
         <v>217</v>
       </c>
-      <c r="L120" s="60" t="s">
+      <c r="L120" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="M120" s="64" t="s">
+      <c r="M120" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="N120" s="59">
+      <c r="N120" s="56">
         <v>28.857949839922696</v>
       </c>
     </row>
@@ -5384,16 +5361,16 @@
         <f t="shared" si="1"/>
         <v>9.484041169487447E-3</v>
       </c>
-      <c r="K121" s="59">
+      <c r="K121" s="56">
         <v>217</v>
       </c>
-      <c r="L121" s="60" t="s">
+      <c r="L121" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="M121" s="64" t="s">
+      <c r="M121" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="N121" s="59">
+      <c r="N121" s="56">
         <v>28.8579498399227</v>
       </c>
     </row>
@@ -5429,16 +5406,16 @@
         <f t="shared" si="1"/>
         <v>1.0157534357853834E-2</v>
       </c>
-      <c r="K122" s="59">
+      <c r="K122" s="56">
         <v>217</v>
       </c>
-      <c r="L122" s="60" t="s">
+      <c r="L122" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="M122" s="64" t="s">
+      <c r="M122" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="N122" s="59">
+      <c r="N122" s="56">
         <v>28.8579498399227</v>
       </c>
     </row>
@@ -5474,16 +5451,16 @@
         <f t="shared" si="1"/>
         <v>1.0004698511023718E-2</v>
       </c>
-      <c r="K123" s="59">
+      <c r="K123" s="56">
         <v>217</v>
       </c>
-      <c r="L123" s="60" t="s">
+      <c r="L123" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="M123" s="64" t="s">
+      <c r="M123" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="N123" s="59">
+      <c r="N123" s="56">
         <v>28.8579498399227</v>
       </c>
     </row>
@@ -5519,16 +5496,16 @@
         <f t="shared" si="1"/>
         <v>9.8741583653032764E-3</v>
       </c>
-      <c r="K124" s="59">
+      <c r="K124" s="56">
         <v>217</v>
       </c>
-      <c r="L124" s="60" t="s">
+      <c r="L124" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="M124" s="64" t="s">
+      <c r="M124" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="N124" s="59">
+      <c r="N124" s="56">
         <v>28.8579498399227</v>
       </c>
     </row>
@@ -5564,16 +5541,16 @@
         <f t="shared" si="1"/>
         <v>7.511032038126992E-3</v>
       </c>
-      <c r="K125" s="59">
+      <c r="K125" s="56">
         <v>201</v>
       </c>
-      <c r="L125" s="61" t="s">
+      <c r="L125" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M125" s="65" t="s">
+      <c r="M125" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N125" s="59">
+      <c r="N125" s="56">
         <v>16.803710988831707</v>
       </c>
     </row>
@@ -5609,16 +5586,16 @@
         <f t="shared" si="1"/>
         <v>7.7105136619975874E-3</v>
       </c>
-      <c r="K126" s="59">
+      <c r="K126" s="56">
         <v>201</v>
       </c>
-      <c r="L126" s="61" t="s">
+      <c r="L126" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M126" s="65" t="s">
+      <c r="M126" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N126" s="59">
+      <c r="N126" s="56">
         <v>16.803710988831707</v>
       </c>
     </row>
@@ -5654,16 +5631,16 @@
         <f t="shared" si="1"/>
         <v>7.5367877635646808E-3</v>
       </c>
-      <c r="K127" s="59">
+      <c r="K127" s="56">
         <v>201</v>
       </c>
-      <c r="L127" s="61" t="s">
+      <c r="L127" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M127" s="65" t="s">
+      <c r="M127" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N127" s="59">
+      <c r="N127" s="56">
         <v>16.8037109888317</v>
       </c>
     </row>
@@ -5699,16 +5676,16 @@
         <f t="shared" si="1"/>
         <v>7.3020218758857473E-3</v>
       </c>
-      <c r="K128" s="59">
+      <c r="K128" s="56">
         <v>201</v>
       </c>
-      <c r="L128" s="61" t="s">
+      <c r="L128" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M128" s="65" t="s">
+      <c r="M128" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N128" s="59">
+      <c r="N128" s="56">
         <v>16.8037109888317</v>
       </c>
     </row>
@@ -5744,16 +5721,16 @@
         <f t="shared" si="1"/>
         <v>7.4369531087565737E-3</v>
       </c>
-      <c r="K129" s="59">
+      <c r="K129" s="56">
         <v>201</v>
       </c>
-      <c r="L129" s="61" t="s">
+      <c r="L129" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M129" s="65" t="s">
+      <c r="M129" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N129" s="59">
+      <c r="N129" s="56">
         <v>16.8037109888317</v>
       </c>
     </row>
@@ -5789,16 +5766,16 @@
         <f t="shared" si="1"/>
         <v>7.269570365632928E-3</v>
       </c>
-      <c r="K130" s="59">
+      <c r="K130" s="56">
         <v>201</v>
       </c>
-      <c r="L130" s="61" t="s">
+      <c r="L130" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M130" s="65" t="s">
+      <c r="M130" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N130" s="59">
+      <c r="N130" s="56">
         <v>16.8037109888317</v>
       </c>
     </row>
@@ -5834,16 +5811,16 @@
         <f t="shared" si="1"/>
         <v>7.0990299786762552E-3</v>
       </c>
-      <c r="K131" s="59">
+      <c r="K131" s="56">
         <v>201</v>
       </c>
-      <c r="L131" s="61" t="s">
+      <c r="L131" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M131" s="65" t="s">
+      <c r="M131" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N131" s="59">
+      <c r="N131" s="56">
         <v>16.8037109888317</v>
       </c>
     </row>
@@ -5879,16 +5856,16 @@
         <f t="shared" si="1"/>
         <v>7.156320300897725E-3</v>
       </c>
-      <c r="K132" s="59">
+      <c r="K132" s="56">
         <v>201</v>
       </c>
-      <c r="L132" s="61" t="s">
+      <c r="L132" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M132" s="65" t="s">
+      <c r="M132" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N132" s="59">
+      <c r="N132" s="56">
         <v>16.8037109888317</v>
       </c>
     </row>
@@ -5924,16 +5901,16 @@
         <f t="shared" si="1"/>
         <v>8.4968679954559052E-3</v>
       </c>
-      <c r="K133" s="59">
+      <c r="K133" s="56">
         <v>201</v>
       </c>
-      <c r="L133" s="61" t="s">
+      <c r="L133" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M133" s="65" t="s">
+      <c r="M133" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N133" s="59">
+      <c r="N133" s="56">
         <v>16.8037109888317</v>
       </c>
     </row>
@@ -5969,16 +5946,16 @@
         <f t="shared" si="1"/>
         <v>8.0546784946949005E-3</v>
       </c>
-      <c r="K134" s="59">
+      <c r="K134" s="56">
         <v>201</v>
       </c>
-      <c r="L134" s="61" t="s">
+      <c r="L134" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M134" s="65" t="s">
+      <c r="M134" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N134" s="59">
+      <c r="N134" s="56">
         <v>16.8037109888317</v>
       </c>
     </row>
@@ -6014,16 +5991,16 @@
         <f t="shared" si="1"/>
         <v>7.6763543387278884E-3</v>
       </c>
-      <c r="K135" s="59">
+      <c r="K135" s="56">
         <v>201</v>
       </c>
-      <c r="L135" s="61" t="s">
+      <c r="L135" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M135" s="65" t="s">
+      <c r="M135" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N135" s="59">
+      <c r="N135" s="56">
         <v>16.8037109888317</v>
       </c>
     </row>
@@ -6059,16 +6036,16 @@
         <f t="shared" si="1"/>
         <v>8.8348790476726283E-3</v>
       </c>
-      <c r="K136" s="59">
+      <c r="K136" s="56">
         <v>216</v>
       </c>
-      <c r="L136" s="61" t="s">
+      <c r="L136" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M136" s="64" t="s">
+      <c r="M136" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="N136" s="59">
+      <c r="N136" s="56">
         <v>13.47767513842691</v>
       </c>
     </row>
@@ -6104,16 +6081,16 @@
         <f t="shared" si="1"/>
         <v>9.2721523876223687E-3</v>
       </c>
-      <c r="K137" s="59">
+      <c r="K137" s="56">
         <v>216</v>
       </c>
-      <c r="L137" s="61" t="s">
+      <c r="L137" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M137" s="64" t="s">
+      <c r="M137" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="N137" s="59">
+      <c r="N137" s="56">
         <v>13.47767513842691</v>
       </c>
     </row>
@@ -6149,16 +6126,16 @@
         <f t="shared" si="1"/>
         <v>9.1168476075593075E-3</v>
       </c>
-      <c r="K138" s="59">
+      <c r="K138" s="56">
         <v>216</v>
       </c>
-      <c r="L138" s="61" t="s">
+      <c r="L138" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M138" s="64" t="s">
+      <c r="M138" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="N138" s="59">
+      <c r="N138" s="56">
         <v>13.4776751384269</v>
       </c>
     </row>
@@ -6194,16 +6171,16 @@
         <f t="shared" si="1"/>
         <v>9.8110972572047275E-3</v>
       </c>
-      <c r="K139" s="59">
+      <c r="K139" s="56">
         <v>216</v>
       </c>
-      <c r="L139" s="61" t="s">
+      <c r="L139" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M139" s="64" t="s">
+      <c r="M139" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="N139" s="59">
+      <c r="N139" s="56">
         <v>13.4776751384269</v>
       </c>
     </row>
@@ -6239,16 +6216,16 @@
         <f t="shared" si="1"/>
         <v>9.5124531537093462E-3</v>
       </c>
-      <c r="K140" s="59">
+      <c r="K140" s="56">
         <v>216</v>
       </c>
-      <c r="L140" s="61" t="s">
+      <c r="L140" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M140" s="64" t="s">
+      <c r="M140" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="N140" s="59">
+      <c r="N140" s="56">
         <v>13.4776751384269</v>
       </c>
     </row>
@@ -6284,16 +6261,16 @@
         <f t="shared" si="1"/>
         <v>9.3427000259119573E-3</v>
       </c>
-      <c r="K141" s="59">
+      <c r="K141" s="56">
         <v>216</v>
       </c>
-      <c r="L141" s="61" t="s">
+      <c r="L141" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M141" s="64" t="s">
+      <c r="M141" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="N141" s="59">
+      <c r="N141" s="56">
         <v>13.4776751384269</v>
       </c>
     </row>
@@ -6329,16 +6306,16 @@
         <f t="shared" si="1"/>
         <v>9.2794565959211477E-3</v>
       </c>
-      <c r="K142" s="59">
+      <c r="K142" s="56">
         <v>216</v>
       </c>
-      <c r="L142" s="61" t="s">
+      <c r="L142" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M142" s="64" t="s">
+      <c r="M142" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="N142" s="59">
+      <c r="N142" s="56">
         <v>13.4776751384269</v>
       </c>
     </row>
@@ -6374,16 +6351,16 @@
         <f t="shared" si="1"/>
         <v>8.4520545256721938E-3</v>
       </c>
-      <c r="K143" s="59">
+      <c r="K143" s="56">
         <v>216</v>
       </c>
-      <c r="L143" s="61" t="s">
+      <c r="L143" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M143" s="64" t="s">
+      <c r="M143" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="N143" s="59">
+      <c r="N143" s="56">
         <v>13.4776751384269</v>
       </c>
     </row>
@@ -6419,16 +6396,16 @@
         <f t="shared" si="1"/>
         <v>8.906269527298569E-3</v>
       </c>
-      <c r="K144" s="59">
+      <c r="K144" s="56">
         <v>216</v>
       </c>
-      <c r="L144" s="61" t="s">
+      <c r="L144" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M144" s="64" t="s">
+      <c r="M144" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="N144" s="59">
+      <c r="N144" s="56">
         <v>13.4776751384269</v>
       </c>
     </row>
@@ -6464,16 +6441,16 @@
         <f t="shared" si="1"/>
         <v>9.0291134886303429E-3</v>
       </c>
-      <c r="K145" s="59">
+      <c r="K145" s="56">
         <v>216</v>
       </c>
-      <c r="L145" s="61" t="s">
+      <c r="L145" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M145" s="64" t="s">
+      <c r="M145" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="N145" s="59">
+      <c r="N145" s="56">
         <v>13.4776751384269</v>
       </c>
     </row>
@@ -6509,16 +6486,16 @@
         <f t="shared" si="1"/>
         <v>8.9409902474255204E-3</v>
       </c>
-      <c r="K146" s="59">
+      <c r="K146" s="56">
         <v>216</v>
       </c>
-      <c r="L146" s="61" t="s">
+      <c r="L146" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M146" s="64" t="s">
+      <c r="M146" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="N146" s="59">
+      <c r="N146" s="56">
         <v>13.4776751384269</v>
       </c>
     </row>
@@ -6554,16 +6531,16 @@
         <f t="shared" si="1"/>
         <v>8.5780979721076615E-3</v>
       </c>
-      <c r="K147" s="59">
+      <c r="K147" s="56">
         <v>208</v>
       </c>
-      <c r="L147" s="60" t="s">
+      <c r="L147" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="M147" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="N147" s="59">
+      <c r="M147" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="N147" s="56">
         <v>13.420825268418511</v>
       </c>
     </row>
@@ -6599,16 +6576,16 @@
         <f t="shared" si="1"/>
         <v>8.6212088432349471E-3</v>
       </c>
-      <c r="K148" s="59">
+      <c r="K148" s="56">
         <v>208</v>
       </c>
-      <c r="L148" s="60" t="s">
+      <c r="L148" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="M148" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="N148" s="59">
+      <c r="M148" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="N148" s="56">
         <v>13.420825268418511</v>
       </c>
     </row>
@@ -6644,16 +6621,16 @@
         <f t="shared" si="1"/>
         <v>8.4467371016671323E-3</v>
       </c>
-      <c r="K149" s="59">
+      <c r="K149" s="56">
         <v>208</v>
       </c>
-      <c r="L149" s="60" t="s">
+      <c r="L149" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="M149" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="N149" s="59">
+      <c r="M149" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="N149" s="56">
         <v>13.420825268418501</v>
       </c>
     </row>
@@ -6689,16 +6666,16 @@
         <f t="shared" si="1"/>
         <v>8.1857814210891059E-3</v>
       </c>
-      <c r="K150" s="59">
+      <c r="K150" s="56">
         <v>208</v>
       </c>
-      <c r="L150" s="60" t="s">
+      <c r="L150" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="M150" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="N150" s="59">
+      <c r="M150" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="N150" s="56">
         <v>13.420825268418501</v>
       </c>
     </row>
@@ -6731,19 +6708,19 @@
         <v>120.48106060606061</v>
       </c>
       <c r="J151">
-        <f t="shared" ref="J151:J182" si="2">1/I151</f>
+        <f t="shared" ref="J151:J172" si="2">1/I151</f>
         <v>8.3000597352783975E-3</v>
       </c>
-      <c r="K151" s="59">
+      <c r="K151" s="56">
         <v>208</v>
       </c>
-      <c r="L151" s="60" t="s">
+      <c r="L151" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="M151" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="N151" s="59">
+      <c r="M151" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="N151" s="56">
         <v>13.420825268418501</v>
       </c>
     </row>
@@ -6779,16 +6756,16 @@
         <f t="shared" si="2"/>
         <v>8.3804101337869117E-3</v>
       </c>
-      <c r="K152" s="59">
+      <c r="K152" s="56">
         <v>208</v>
       </c>
-      <c r="L152" s="60" t="s">
+      <c r="L152" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="M152" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="N152" s="59">
+      <c r="M152" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="N152" s="56">
         <v>13.420825268418501</v>
       </c>
     </row>
@@ -6824,16 +6801,16 @@
         <f t="shared" si="2"/>
         <v>8.0686885072233684E-3</v>
       </c>
-      <c r="K153" s="59">
+      <c r="K153" s="56">
         <v>208</v>
       </c>
-      <c r="L153" s="60" t="s">
+      <c r="L153" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="M153" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="N153" s="59">
+      <c r="M153" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="N153" s="56">
         <v>13.420825268418501</v>
       </c>
     </row>
@@ -6869,16 +6846,16 @@
         <f t="shared" si="2"/>
         <v>8.397727284799027E-3</v>
       </c>
-      <c r="K154" s="59">
+      <c r="K154" s="56">
         <v>208</v>
       </c>
-      <c r="L154" s="60" t="s">
+      <c r="L154" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="M154" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="N154" s="59">
+      <c r="M154" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="N154" s="56">
         <v>13.420825268418501</v>
       </c>
     </row>
@@ -6914,16 +6891,16 @@
         <f t="shared" si="2"/>
         <v>8.5645704209054117E-3</v>
       </c>
-      <c r="K155" s="59">
+      <c r="K155" s="56">
         <v>208</v>
       </c>
-      <c r="L155" s="60" t="s">
+      <c r="L155" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="M155" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="N155" s="59">
+      <c r="M155" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="N155" s="56">
         <v>13.420825268418501</v>
       </c>
     </row>
@@ -6959,16 +6936,16 @@
         <f t="shared" si="2"/>
         <v>8.1231754626397475E-3</v>
       </c>
-      <c r="K156" s="59">
+      <c r="K156" s="56">
         <v>208</v>
       </c>
-      <c r="L156" s="60" t="s">
+      <c r="L156" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="M156" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="N156" s="59">
+      <c r="M156" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="N156" s="56">
         <v>13.420825268418501</v>
       </c>
     </row>
@@ -7004,16 +6981,16 @@
         <f t="shared" si="2"/>
         <v>7.9149330007604324E-3</v>
       </c>
-      <c r="K157" s="59">
+      <c r="K157" s="56">
         <v>199</v>
       </c>
-      <c r="L157" s="60" t="s">
+      <c r="L157" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="M157" s="65" t="s">
+      <c r="M157" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N157" s="59">
+      <c r="N157" s="56">
         <v>12.677881754313882</v>
       </c>
     </row>
@@ -7049,16 +7026,16 @@
         <f t="shared" si="2"/>
         <v>8.4101513696601196E-3</v>
       </c>
-      <c r="K158" s="59">
+      <c r="K158" s="56">
         <v>199</v>
       </c>
-      <c r="L158" s="60" t="s">
+      <c r="L158" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="M158" s="65" t="s">
+      <c r="M158" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N158" s="59">
+      <c r="N158" s="56">
         <v>12.677881754313882</v>
       </c>
     </row>
@@ -7094,16 +7071,16 @@
         <f t="shared" si="2"/>
         <v>7.8602732620721445E-3</v>
       </c>
-      <c r="K159" s="59">
+      <c r="K159" s="56">
         <v>199</v>
       </c>
-      <c r="L159" s="60" t="s">
+      <c r="L159" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="M159" s="65" t="s">
+      <c r="M159" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N159" s="59">
+      <c r="N159" s="56">
         <v>12.6778817543139</v>
       </c>
     </row>
@@ -7139,16 +7116,16 @@
         <f t="shared" si="2"/>
         <v>8.1447172478351024E-3</v>
       </c>
-      <c r="K160" s="59">
+      <c r="K160" s="56">
         <v>199</v>
       </c>
-      <c r="L160" s="60" t="s">
+      <c r="L160" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="M160" s="65" t="s">
+      <c r="M160" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N160" s="59">
+      <c r="N160" s="56">
         <v>12.6778817543139</v>
       </c>
     </row>
@@ -7184,16 +7161,16 @@
         <f t="shared" si="2"/>
         <v>8.4960541872587218E-3</v>
       </c>
-      <c r="K161" s="59">
+      <c r="K161" s="56">
         <v>199</v>
       </c>
-      <c r="L161" s="60" t="s">
+      <c r="L161" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="M161" s="65" t="s">
+      <c r="M161" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N161" s="59">
+      <c r="N161" s="56">
         <v>12.6778817543139</v>
       </c>
     </row>
@@ -7229,16 +7206,16 @@
         <f t="shared" si="2"/>
         <v>7.6797445246139578E-3</v>
       </c>
-      <c r="K162" s="59">
+      <c r="K162" s="56">
         <v>199</v>
       </c>
-      <c r="L162" s="60" t="s">
+      <c r="L162" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="M162" s="65" t="s">
+      <c r="M162" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N162" s="59">
+      <c r="N162" s="56">
         <v>12.6778817543139</v>
       </c>
     </row>
@@ -7274,16 +7251,16 @@
         <f t="shared" si="2"/>
         <v>7.7923175162304429E-3</v>
       </c>
-      <c r="K163" s="59">
+      <c r="K163" s="56">
         <v>220</v>
       </c>
-      <c r="L163" s="60" t="s">
+      <c r="L163" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="M163" s="62" t="s">
+      <c r="M163" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="N163" s="59">
+      <c r="N163" s="56">
         <v>12.291954267803135</v>
       </c>
     </row>
@@ -7319,16 +7296,16 @@
         <f t="shared" si="2"/>
         <v>7.4145619510652128E-3</v>
       </c>
-      <c r="K164" s="59">
+      <c r="K164" s="56">
         <v>220</v>
       </c>
-      <c r="L164" s="60" t="s">
+      <c r="L164" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="M164" s="62" t="s">
+      <c r="M164" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="N164" s="59">
+      <c r="N164" s="56">
         <v>12.291954267803135</v>
       </c>
     </row>
@@ -7364,16 +7341,16 @@
         <f t="shared" si="2"/>
         <v>7.3643112820942708E-3</v>
       </c>
-      <c r="K165" s="59">
+      <c r="K165" s="56">
         <v>220</v>
       </c>
-      <c r="L165" s="60" t="s">
+      <c r="L165" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="M165" s="62" t="s">
+      <c r="M165" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="N165" s="59">
+      <c r="N165" s="56">
         <v>12.291954267803099</v>
       </c>
     </row>
@@ -7409,16 +7386,16 @@
         <f t="shared" si="2"/>
         <v>7.6645567278564135E-3</v>
       </c>
-      <c r="K166" s="59">
+      <c r="K166" s="56">
         <v>220</v>
       </c>
-      <c r="L166" s="60" t="s">
+      <c r="L166" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="M166" s="62" t="s">
+      <c r="M166" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="N166" s="59">
+      <c r="N166" s="56">
         <v>12.291954267803099</v>
       </c>
     </row>
@@ -7454,16 +7431,16 @@
         <f t="shared" si="2"/>
         <v>7.6375467235400658E-3</v>
       </c>
-      <c r="K167" s="59">
+      <c r="K167" s="56">
         <v>220</v>
       </c>
-      <c r="L167" s="60" t="s">
+      <c r="L167" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="M167" s="62" t="s">
+      <c r="M167" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="N167" s="59">
+      <c r="N167" s="56">
         <v>12.291954267803099</v>
       </c>
     </row>
@@ -7499,16 +7476,16 @@
         <f t="shared" si="2"/>
         <v>7.4580722844189646E-3</v>
       </c>
-      <c r="K168" s="59">
+      <c r="K168" s="56">
         <v>220</v>
       </c>
-      <c r="L168" s="60" t="s">
+      <c r="L168" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="M168" s="62" t="s">
+      <c r="M168" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="N168" s="59">
+      <c r="N168" s="56">
         <v>12.291954267803099</v>
       </c>
     </row>
@@ -7544,16 +7521,16 @@
         <f t="shared" si="2"/>
         <v>7.0517382530508781E-3</v>
       </c>
-      <c r="K169" s="59">
+      <c r="K169" s="56">
         <v>220</v>
       </c>
-      <c r="L169" s="60" t="s">
+      <c r="L169" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="M169" s="62" t="s">
+      <c r="M169" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="N169" s="59">
+      <c r="N169" s="56">
         <v>12.291954267803099</v>
       </c>
     </row>
@@ -7589,16 +7566,16 @@
         <f t="shared" si="2"/>
         <v>7.3011583016881652E-3</v>
       </c>
-      <c r="K170" s="59">
+      <c r="K170" s="56">
         <v>220</v>
       </c>
-      <c r="L170" s="60" t="s">
+      <c r="L170" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="M170" s="62" t="s">
+      <c r="M170" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="N170" s="59">
+      <c r="N170" s="56">
         <v>12.291954267803099</v>
       </c>
     </row>
@@ -7634,16 +7611,16 @@
         <f t="shared" si="2"/>
         <v>7.5384301972266721E-3</v>
       </c>
-      <c r="K171" s="59">
+      <c r="K171" s="56">
         <v>220</v>
       </c>
-      <c r="L171" s="60" t="s">
+      <c r="L171" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="M171" s="62" t="s">
+      <c r="M171" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="N171" s="59">
+      <c r="N171" s="56">
         <v>12.291954267803099</v>
       </c>
     </row>
@@ -7679,16 +7656,16 @@
         <f t="shared" si="2"/>
         <v>7.1614792131466046E-3</v>
       </c>
-      <c r="K172" s="59">
+      <c r="K172" s="56">
         <v>220</v>
       </c>
-      <c r="L172" s="60" t="s">
+      <c r="L172" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="M172" s="62" t="s">
+      <c r="M172" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="N172" s="59">
+      <c r="N172" s="56">
         <v>12.291954267803099</v>
       </c>
     </row>
@@ -7696,7 +7673,7 @@
       <c r="A173">
         <v>7</v>
       </c>
-      <c r="B173" s="49">
+      <c r="B173" s="46">
         <v>10</v>
       </c>
       <c r="C173">
@@ -7724,16 +7701,16 @@
       <c r="J173">
         <v>8.4228627353326625E-3</v>
       </c>
-      <c r="K173" s="59">
+      <c r="K173" s="56">
         <v>210</v>
       </c>
-      <c r="L173" s="61" t="s">
+      <c r="L173" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M173" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="N173" s="59">
+      <c r="M173" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="N173" s="56">
         <v>11.425130911221268</v>
       </c>
     </row>
@@ -7741,7 +7718,7 @@
       <c r="A174">
         <v>7</v>
       </c>
-      <c r="B174" s="49">
+      <c r="B174" s="46">
         <v>10</v>
       </c>
       <c r="C174">
@@ -7769,16 +7746,16 @@
       <c r="J174">
         <v>8.1356946527901906E-3</v>
       </c>
-      <c r="K174" s="59">
+      <c r="K174" s="56">
         <v>210</v>
       </c>
-      <c r="L174" s="61" t="s">
+      <c r="L174" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M174" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="N174" s="59">
+      <c r="M174" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="N174" s="56">
         <v>11.425130911221268</v>
       </c>
     </row>
@@ -7786,7 +7763,7 @@
       <c r="A175">
         <v>7</v>
       </c>
-      <c r="B175" s="49">
+      <c r="B175" s="46">
         <v>10</v>
       </c>
       <c r="C175">
@@ -7814,16 +7791,16 @@
       <c r="J175">
         <v>7.4493565627168643E-3</v>
       </c>
-      <c r="K175" s="59">
+      <c r="K175" s="56">
         <v>210</v>
       </c>
-      <c r="L175" s="61" t="s">
+      <c r="L175" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M175" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="N175" s="59">
+      <c r="M175" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="N175" s="56">
         <v>11.4251309112213</v>
       </c>
     </row>
@@ -7831,7 +7808,7 @@
       <c r="A176">
         <v>7</v>
       </c>
-      <c r="B176" s="49">
+      <c r="B176" s="46">
         <v>10</v>
       </c>
       <c r="C176">
@@ -7859,16 +7836,16 @@
       <c r="J176">
         <v>7.89119537280452E-3</v>
       </c>
-      <c r="K176" s="59">
+      <c r="K176" s="56">
         <v>210</v>
       </c>
-      <c r="L176" s="61" t="s">
+      <c r="L176" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M176" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="N176" s="59">
+      <c r="M176" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="N176" s="56">
         <v>11.4251309112213</v>
       </c>
     </row>
@@ -7876,7 +7853,7 @@
       <c r="A177">
         <v>7</v>
       </c>
-      <c r="B177" s="49">
+      <c r="B177" s="46">
         <v>10</v>
       </c>
       <c r="C177">
@@ -7904,16 +7881,16 @@
       <c r="J177">
         <v>8.4740815336172021E-3</v>
       </c>
-      <c r="K177" s="59">
+      <c r="K177" s="56">
         <v>210</v>
       </c>
-      <c r="L177" s="61" t="s">
+      <c r="L177" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M177" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="N177" s="59">
+      <c r="M177" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="N177" s="56">
         <v>11.4251309112213</v>
       </c>
     </row>
@@ -7921,7 +7898,7 @@
       <c r="A178">
         <v>7</v>
       </c>
-      <c r="B178" s="49">
+      <c r="B178" s="46">
         <v>10</v>
       </c>
       <c r="C178">
@@ -7949,16 +7926,16 @@
       <c r="J178">
         <v>8.8553140434840024E-3</v>
       </c>
-      <c r="K178" s="59">
+      <c r="K178" s="56">
         <v>210</v>
       </c>
-      <c r="L178" s="61" t="s">
+      <c r="L178" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M178" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="N178" s="59">
+      <c r="M178" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="N178" s="56">
         <v>11.4251309112213</v>
       </c>
     </row>
@@ -7966,7 +7943,7 @@
       <c r="A179">
         <v>7</v>
       </c>
-      <c r="B179" s="49">
+      <c r="B179" s="46">
         <v>10</v>
       </c>
       <c r="C179">
@@ -7994,16 +7971,16 @@
       <c r="J179">
         <v>7.9816577436439915E-3</v>
       </c>
-      <c r="K179" s="59">
+      <c r="K179" s="56">
         <v>210</v>
       </c>
-      <c r="L179" s="61" t="s">
+      <c r="L179" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M179" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="N179" s="59">
+      <c r="M179" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="N179" s="56">
         <v>11.4251309112213</v>
       </c>
     </row>
@@ -8011,7 +7988,7 @@
       <c r="A180">
         <v>7</v>
       </c>
-      <c r="B180" s="49">
+      <c r="B180" s="46">
         <v>10</v>
       </c>
       <c r="C180">
@@ -8039,16 +8016,16 @@
       <c r="J180">
         <v>8.5802553365024459E-3</v>
       </c>
-      <c r="K180" s="59">
+      <c r="K180" s="56">
         <v>210</v>
       </c>
-      <c r="L180" s="61" t="s">
+      <c r="L180" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M180" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="N180" s="59">
+      <c r="M180" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="N180" s="56">
         <v>11.4251309112213</v>
       </c>
     </row>
@@ -8056,7 +8033,7 @@
       <c r="A181">
         <v>7</v>
       </c>
-      <c r="B181" s="49">
+      <c r="B181" s="46">
         <v>10</v>
       </c>
       <c r="C181">
@@ -8084,16 +8061,16 @@
       <c r="J181">
         <v>7.951456600681894E-3</v>
       </c>
-      <c r="K181" s="59">
+      <c r="K181" s="56">
         <v>210</v>
       </c>
-      <c r="L181" s="61" t="s">
+      <c r="L181" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M181" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="N181" s="59">
+      <c r="M181" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="N181" s="56">
         <v>11.4251309112213</v>
       </c>
     </row>
@@ -8101,7 +8078,7 @@
       <c r="A182">
         <v>7</v>
       </c>
-      <c r="B182" s="49">
+      <c r="B182" s="46">
         <v>10</v>
       </c>
       <c r="C182">
@@ -8129,16 +8106,16 @@
       <c r="J182">
         <v>7.4256780781204621E-3</v>
       </c>
-      <c r="K182" s="59">
+      <c r="K182" s="56">
         <v>210</v>
       </c>
-      <c r="L182" s="61" t="s">
+      <c r="L182" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M182" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="N182" s="59">
+      <c r="M182" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="N182" s="56">
         <v>11.4251309112213</v>
       </c>
     </row>
@@ -8146,7 +8123,7 @@
       <c r="A183">
         <v>7</v>
       </c>
-      <c r="B183" s="49">
+      <c r="B183" s="46">
         <v>10</v>
       </c>
       <c r="C183">
@@ -8174,16 +8151,16 @@
       <c r="J183">
         <v>7.9130327245006127E-3</v>
       </c>
-      <c r="K183" s="59">
+      <c r="K183" s="56">
         <v>210</v>
       </c>
-      <c r="L183" s="61" t="s">
+      <c r="L183" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M183" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="N183" s="59">
+      <c r="M183" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="N183" s="56">
         <v>11.4251309112213</v>
       </c>
     </row>
@@ -8219,16 +8196,16 @@
         <f t="shared" ref="J184:J193" si="4">1/I184</f>
         <v>8.8610544279374669E-3</v>
       </c>
-      <c r="K184" s="59">
+      <c r="K184" s="56">
         <v>317</v>
       </c>
-      <c r="L184" s="61" t="s">
+      <c r="L184" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M184" s="62" t="s">
+      <c r="M184" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="N184" s="59">
+      <c r="N184" s="56">
         <v>14.636954289225409</v>
       </c>
     </row>
@@ -8264,16 +8241,16 @@
         <f t="shared" si="4"/>
         <v>9.1152586031517015E-3</v>
       </c>
-      <c r="K185" s="59">
+      <c r="K185" s="56">
         <v>317</v>
       </c>
-      <c r="L185" s="61" t="s">
+      <c r="L185" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M185" s="62" t="s">
+      <c r="M185" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="N185" s="59">
+      <c r="N185" s="56">
         <v>14.636954289225409</v>
       </c>
     </row>
@@ -8309,16 +8286,16 @@
         <f t="shared" si="4"/>
         <v>8.424043653667947E-3</v>
       </c>
-      <c r="K186" s="59">
+      <c r="K186" s="56">
         <v>317</v>
       </c>
-      <c r="L186" s="61" t="s">
+      <c r="L186" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M186" s="62" t="s">
+      <c r="M186" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="N186" s="59">
+      <c r="N186" s="56">
         <v>14.6369542892254</v>
       </c>
     </row>
@@ -8354,16 +8331,16 @@
         <f t="shared" si="4"/>
         <v>9.0423685461293105E-3</v>
       </c>
-      <c r="K187" s="59">
+      <c r="K187" s="56">
         <v>317</v>
       </c>
-      <c r="L187" s="61" t="s">
+      <c r="L187" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M187" s="62" t="s">
+      <c r="M187" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="N187" s="59">
+      <c r="N187" s="56">
         <v>14.6369542892254</v>
       </c>
     </row>
@@ -8399,16 +8376,16 @@
         <f t="shared" si="4"/>
         <v>9.0802682010472108E-3</v>
       </c>
-      <c r="K188" s="59">
+      <c r="K188" s="56">
         <v>317</v>
       </c>
-      <c r="L188" s="61" t="s">
+      <c r="L188" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M188" s="62" t="s">
+      <c r="M188" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="N188" s="59">
+      <c r="N188" s="56">
         <v>14.6369542892254</v>
       </c>
     </row>
@@ -8444,16 +8421,16 @@
         <f t="shared" si="4"/>
         <v>8.6669208207347803E-3</v>
       </c>
-      <c r="K189" s="59">
+      <c r="K189" s="56">
         <v>317</v>
       </c>
-      <c r="L189" s="61" t="s">
+      <c r="L189" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M189" s="62" t="s">
+      <c r="M189" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="N189" s="59">
+      <c r="N189" s="56">
         <v>14.6369542892254</v>
       </c>
     </row>
@@ -8489,16 +8466,16 @@
         <f t="shared" si="4"/>
         <v>8.2990737713984509E-3</v>
       </c>
-      <c r="K190" s="59">
+      <c r="K190" s="56">
         <v>317</v>
       </c>
-      <c r="L190" s="61" t="s">
+      <c r="L190" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M190" s="62" t="s">
+      <c r="M190" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="N190" s="59">
+      <c r="N190" s="56">
         <v>14.6369542892254</v>
       </c>
     </row>
@@ -8534,16 +8511,16 @@
         <f t="shared" si="4"/>
         <v>9.1328159275372908E-3</v>
       </c>
-      <c r="K191" s="59">
+      <c r="K191" s="56">
         <v>317</v>
       </c>
-      <c r="L191" s="61" t="s">
+      <c r="L191" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M191" s="62" t="s">
+      <c r="M191" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="N191" s="59">
+      <c r="N191" s="56">
         <v>14.6369542892254</v>
       </c>
     </row>
@@ -8579,16 +8556,16 @@
         <f t="shared" si="4"/>
         <v>8.4636817473231329E-3</v>
       </c>
-      <c r="K192" s="59">
+      <c r="K192" s="56">
         <v>317</v>
       </c>
-      <c r="L192" s="61" t="s">
+      <c r="L192" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M192" s="62" t="s">
+      <c r="M192" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="N192" s="59">
+      <c r="N192" s="56">
         <v>14.6369542892254</v>
       </c>
     </row>
@@ -8624,16 +8601,16 @@
         <f t="shared" si="4"/>
         <v>9.2972114788063918E-3</v>
       </c>
-      <c r="K193" s="59">
+      <c r="K193" s="56">
         <v>317</v>
       </c>
-      <c r="L193" s="61" t="s">
+      <c r="L193" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M193" s="62" t="s">
+      <c r="M193" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="N193" s="59">
+      <c r="N193" s="56">
         <v>14.6369542892254</v>
       </c>
     </row>
@@ -10883,985 +10860,840 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E74E1D8-73D4-144E-9DC4-801AA327A535}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="71"/>
-    <col min="3" max="3" width="10.83203125" style="72"/>
-    <col min="4" max="4" width="10.83203125" style="68"/>
-    <col min="5" max="6" width="10.83203125" style="74"/>
+    <col min="2" max="2" width="10.83203125" style="68"/>
+    <col min="3" max="3" width="10.83203125" style="70"/>
+    <col min="4" max="4" width="10.83203125" style="72"/>
+    <col min="5" max="5" width="10.83203125" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="50">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="47">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="69">
+        <v>217</v>
+      </c>
+      <c r="D2" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="71">
         <v>28.857949839922696</v>
       </c>
-      <c r="E2" s="73">
-        <v>217</v>
-      </c>
-      <c r="F2" s="75" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="64">
+        <v>218</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="65">
+        <v>19.015031882397953</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>22</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="64">
+        <v>219</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="65">
+        <v>15.81193183638095</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="49">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="64">
+        <v>208</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="65">
+        <v>13.420825268418511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="64">
+        <v>209</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="65">
+        <v>14.23931155740236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>23</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="64">
+        <v>207</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="65">
+        <v>11.947421291540955</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="49">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="64">
+        <v>220</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="65">
+        <v>12.291954267803135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="64">
+        <v>213</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="65">
+        <v>11.913859209934911</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="64">
+        <v>212</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="65">
+        <v>10.856732318648302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="48">
+        <v>7</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="64">
+        <v>199</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="65">
+        <v>12.677881754313882</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="64">
+        <v>203</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="65">
+        <v>8.5461399408844834</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
+        <v>19</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="64">
+        <v>202</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="65">
+        <v>10.692229253285765</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="49">
+        <v>5</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="64">
+        <v>216</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="65">
+        <v>13.47767513842691</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="64">
+        <v>215</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="65">
+        <v>14.439588105062722</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
+        <v>17</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="64">
+        <v>214</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="65">
+        <v>13.132059498359069</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <v>2</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="64">
+        <v>206</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="65">
+        <v>19.41090339360267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="48">
+        <v>10</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="64">
+        <v>210</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="65">
+        <v>11.425130911221268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
+        <v>16</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="64">
+        <v>205</v>
+      </c>
+      <c r="D19" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="65">
+        <v>10.742495189822451</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="48">
+        <v>11</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="64">
+        <v>317</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="65">
+        <v>14.636954289225409</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="64">
+        <v>318</v>
+      </c>
+      <c r="D21" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="65">
+        <v>15.513431692832029</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="64">
+        <v>211</v>
+      </c>
+      <c r="D22" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="65">
+        <v>11.036887876056703</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="49">
+        <v>3</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="64">
+        <v>201</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="65">
+        <v>16.803710988831707</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
-        <v>4</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="B24" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="64">
+        <v>200</v>
+      </c>
+      <c r="D24" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="65">
+        <v>12.293054511856621</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>24</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="66">
+        <v>204</v>
+      </c>
+      <c r="D25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="65">
+        <v>11.665532871742329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="54">
+        <v>29</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C26" s="69">
+        <v>304</v>
+      </c>
+      <c r="D26" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="8">
-        <v>19.015031882397953</v>
-      </c>
-      <c r="E3" s="67">
-        <v>218</v>
-      </c>
-      <c r="F3" s="68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
+      <c r="E26" s="65">
+        <v>23.29278686016999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="55">
+        <v>37</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="64">
+        <v>311</v>
+      </c>
+      <c r="D27" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="65">
+        <v>13.951769144112939</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="55">
+        <v>41</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="64">
+        <v>312</v>
+      </c>
+      <c r="D28" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="65">
+        <v>14.5746974676095</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="55">
+        <v>45</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="64">
+        <v>310</v>
+      </c>
+      <c r="D29" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="65">
+        <v>19.114497613405479</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="53">
+        <v>25</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="64">
+        <v>303</v>
+      </c>
+      <c r="D30" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="65">
+        <v>16.085750398747635</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="55">
+        <v>31</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="64">
+        <v>94</v>
+      </c>
+      <c r="D31" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="65">
+        <v>14.720949160232598</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="55">
+        <v>43</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="64">
+        <v>305</v>
+      </c>
+      <c r="D32" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="65">
+        <v>18.421045373317131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="52">
+        <v>27</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="64">
+        <v>302</v>
+      </c>
+      <c r="D33" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="65">
+        <v>10.927999498069793</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="55">
+        <v>40</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="64">
+        <v>99</v>
+      </c>
+      <c r="D34" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="65">
+        <v>13.95401098646094</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="55">
+        <v>46</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="64">
+        <v>301</v>
+      </c>
+      <c r="D35" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="65">
+        <v>15.420216090510136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="52">
+        <v>26</v>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="C36" s="64">
+        <v>315</v>
+      </c>
+      <c r="D36" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="8">
-        <v>15.81193183638095</v>
-      </c>
-      <c r="E4" s="67">
-        <v>219</v>
-      </c>
-      <c r="F4" s="68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="52">
-        <v>6</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="8">
-        <v>13.420825268418511</v>
-      </c>
-      <c r="E5" s="67">
-        <v>208</v>
-      </c>
-      <c r="F5" s="68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
-        <v>12</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="8">
-        <v>14.23931155740236</v>
-      </c>
-      <c r="E6" s="67">
-        <v>209</v>
-      </c>
-      <c r="F6" s="68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
-        <v>23</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="8">
-        <v>11.947421291540955</v>
-      </c>
-      <c r="E7" s="67">
-        <v>207</v>
-      </c>
-      <c r="F7" s="68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="52">
-        <v>8</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="E36" s="65">
+        <v>18.337374858653217</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="55">
+        <v>34</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="64">
+        <v>313</v>
+      </c>
+      <c r="D37" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="65">
+        <v>17.866595414461671</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="55">
+        <v>35</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="64">
+        <v>314</v>
+      </c>
+      <c r="D38" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="65">
+        <v>9.9570764158111853</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="55">
+        <v>44</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="64">
+        <v>316</v>
+      </c>
+      <c r="D39" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="65">
+        <v>14.060836152911216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="53">
+        <v>32</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="64">
+        <v>309</v>
+      </c>
+      <c r="D40" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="65">
+        <v>18.192307051083571</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="55">
+        <v>42</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="64">
+        <v>308</v>
+      </c>
+      <c r="D41" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="65">
+        <v>21.573363295670738</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="55">
+        <v>47</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="64">
+        <v>80</v>
+      </c>
+      <c r="D42" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="65">
+        <v>14.613959584011379</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="10">
+        <v>39</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="64">
+        <v>306</v>
+      </c>
+      <c r="D43" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="8">
-        <v>12.291954267803135</v>
-      </c>
-      <c r="E8" s="67">
-        <v>220</v>
-      </c>
-      <c r="F8" s="68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
-        <v>13</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="E43" s="65">
+        <v>20.616310010007961</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="53">
+        <v>28</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="64">
+        <v>73</v>
+      </c>
+      <c r="D44" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="8">
-        <v>11.913859209934911</v>
-      </c>
-      <c r="E9" s="67">
-        <v>213</v>
-      </c>
-      <c r="F9" s="68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
-        <v>18</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="E44" s="65">
+        <v>14.115362655943249</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="55">
+        <v>33</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="64">
+        <v>307</v>
+      </c>
+      <c r="D45" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="8">
-        <v>10.856732318648302</v>
-      </c>
-      <c r="E10" s="67">
-        <v>212</v>
-      </c>
-      <c r="F10" s="68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="51">
-        <v>7</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="14" t="s">
+      <c r="E45" s="65">
+        <v>21.343022174092379</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="55">
+        <v>36</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="64">
+        <v>74</v>
+      </c>
+      <c r="D46" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="65">
+        <v>15.2939192827381</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="55">
+        <v>38</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="64">
+        <v>103</v>
+      </c>
+      <c r="D47" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="8">
-        <v>12.677881754313882</v>
-      </c>
-      <c r="E11" s="67">
-        <v>199</v>
-      </c>
-      <c r="F11" s="68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
-        <v>9</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="14" t="s">
+      <c r="E47" s="65">
+        <v>15.48794895712108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="53">
+        <v>30</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="66">
+        <v>87</v>
+      </c>
+      <c r="D48" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="8">
-        <v>8.5461399408844834</v>
-      </c>
-      <c r="E12" s="67">
-        <v>203</v>
-      </c>
-      <c r="F12" s="68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
-        <v>19</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="8">
-        <v>10.692229253285765</v>
-      </c>
-      <c r="E13" s="67">
-        <v>202</v>
-      </c>
-      <c r="F13" s="68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="52">
-        <v>5</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="8">
-        <v>13.47767513842691</v>
-      </c>
-      <c r="E14" s="67">
-        <v>216</v>
-      </c>
-      <c r="F14" s="68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
-        <v>14</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="8">
-        <v>14.439588105062722</v>
-      </c>
-      <c r="E15" s="67">
-        <v>215</v>
-      </c>
-      <c r="F15" s="68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
-        <v>17</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="8">
-        <v>13.132059498359069</v>
-      </c>
-      <c r="E16" s="67">
-        <v>214</v>
-      </c>
-      <c r="F16" s="68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
-        <v>2</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="8">
-        <v>19.41090339360267</v>
-      </c>
-      <c r="E17" s="67">
-        <v>206</v>
-      </c>
-      <c r="F17" s="68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="51">
-        <v>10</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="8">
-        <v>11.425130911221268</v>
-      </c>
-      <c r="E18" s="67">
-        <v>210</v>
-      </c>
-      <c r="F18" s="68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
-        <v>16</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="8">
-        <v>10.742495189822451</v>
-      </c>
-      <c r="E19" s="67">
-        <v>205</v>
-      </c>
-      <c r="F19" s="68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="51">
-        <v>11</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="8">
-        <v>14.636954289225409</v>
-      </c>
-      <c r="E20" s="67">
-        <v>317</v>
-      </c>
-      <c r="F20" s="68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="11">
-        <v>20</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="8">
-        <v>15.513431692832029</v>
-      </c>
-      <c r="E21" s="67">
-        <v>318</v>
-      </c>
-      <c r="F21" s="68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="11">
-        <v>21</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="8">
-        <v>11.036887876056703</v>
-      </c>
-      <c r="E22" s="67">
-        <v>211</v>
-      </c>
-      <c r="F22" s="68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="52">
-        <v>3</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="8">
-        <v>16.803710988831707</v>
-      </c>
-      <c r="E23" s="67">
-        <v>201</v>
-      </c>
-      <c r="F23" s="68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="11">
-        <v>15</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="8">
-        <v>12.293054511856621</v>
-      </c>
-      <c r="E24" s="67">
-        <v>200</v>
-      </c>
-      <c r="F24" s="68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="18">
-        <v>24</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="8">
-        <v>11.665532871742329</v>
-      </c>
-      <c r="E25" s="69">
-        <v>204</v>
-      </c>
-      <c r="F25" s="70" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="57">
-        <v>29</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="68">
-        <v>23.29278686016999</v>
-      </c>
-      <c r="E26" s="73">
-        <v>304</v>
-      </c>
-      <c r="F26" s="75" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="58">
-        <v>37</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="68">
-        <v>13.951769144112939</v>
-      </c>
-      <c r="E27" s="67">
-        <v>311</v>
-      </c>
-      <c r="F27" s="68" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="58">
-        <v>41</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="68">
-        <v>14.5746974676095</v>
-      </c>
-      <c r="E28" s="67">
-        <v>312</v>
-      </c>
-      <c r="F28" s="68" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="58">
-        <v>45</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="68">
-        <v>19.114497613405479</v>
-      </c>
-      <c r="E29" s="67">
-        <v>310</v>
-      </c>
-      <c r="F29" s="68" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="56">
-        <v>25</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="68">
-        <v>16.085750398747635</v>
-      </c>
-      <c r="E30" s="67">
-        <v>303</v>
-      </c>
-      <c r="F30" s="68" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="58">
-        <v>31</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="68">
-        <v>14.720949160232598</v>
-      </c>
-      <c r="E31" s="67">
-        <v>94</v>
-      </c>
-      <c r="F31" s="68" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="58">
-        <v>43</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="68">
-        <v>18.421045373317131</v>
-      </c>
-      <c r="E32" s="67">
-        <v>305</v>
-      </c>
-      <c r="F32" s="68" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="55">
-        <v>27</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="68">
-        <v>10.927999498069793</v>
-      </c>
-      <c r="E33" s="67">
-        <v>302</v>
-      </c>
-      <c r="F33" s="68" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="58">
-        <v>40</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="68">
-        <v>13.95401098646094</v>
-      </c>
-      <c r="E34" s="67">
-        <v>99</v>
-      </c>
-      <c r="F34" s="68" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="58">
-        <v>46</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="68">
-        <v>15.420216090510136</v>
-      </c>
-      <c r="E35" s="67">
-        <v>301</v>
-      </c>
-      <c r="F35" s="68" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="55">
-        <v>26</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="68">
-        <v>18.337374858653217</v>
-      </c>
-      <c r="E36" s="67">
-        <v>315</v>
-      </c>
-      <c r="F36" s="68" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="58">
-        <v>34</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="68">
-        <v>17.866595414461671</v>
-      </c>
-      <c r="E37" s="67">
-        <v>313</v>
-      </c>
-      <c r="F37" s="68" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="58">
-        <v>35</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="68">
-        <v>9.9570764158111853</v>
-      </c>
-      <c r="E38" s="67">
-        <v>314</v>
-      </c>
-      <c r="F38" s="68" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="58">
-        <v>44</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="68">
-        <v>14.060836152911216</v>
-      </c>
-      <c r="E39" s="67">
-        <v>316</v>
-      </c>
-      <c r="F39" s="68" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="56">
-        <v>32</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="68">
-        <v>18.192307051083571</v>
-      </c>
-      <c r="E40" s="67">
-        <v>309</v>
-      </c>
-      <c r="F40" s="68" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="58">
-        <v>42</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="68">
-        <v>21.573363295670738</v>
-      </c>
-      <c r="E41" s="67">
-        <v>308</v>
-      </c>
-      <c r="F41" s="68" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="58">
-        <v>47</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="68">
-        <v>14.613959584011379</v>
-      </c>
-      <c r="E42" s="67">
-        <v>80</v>
-      </c>
-      <c r="F42" s="68" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
-      <c r="B43" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="68">
-        <v>20.616310010007961</v>
-      </c>
-      <c r="E43" s="67">
-        <v>306</v>
-      </c>
-      <c r="F43" s="68" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="56">
-        <v>28</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="68">
-        <v>14.115362655943249</v>
-      </c>
-      <c r="E44" s="67">
-        <v>73</v>
-      </c>
-      <c r="F44" s="68" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="58">
-        <v>33</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="68">
-        <v>21.343022174092379</v>
-      </c>
-      <c r="E45" s="67">
-        <v>307</v>
-      </c>
-      <c r="F45" s="68" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="58">
-        <v>36</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="68">
-        <v>15.2939192827381</v>
-      </c>
-      <c r="E46" s="67">
-        <v>74</v>
-      </c>
-      <c r="F46" s="68" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="58">
-        <v>38</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="68">
-        <v>15.48794895712108</v>
-      </c>
-      <c r="E47" s="67">
-        <v>103</v>
-      </c>
-      <c r="F47" s="68" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="56">
-        <v>30</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="70">
+      <c r="E48" s="67">
         <v>18.170848434635761</v>
       </c>
-      <c r="E48" s="69">
-        <v>87</v>
-      </c>
-      <c r="F48" s="70" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="18">
-        <v>39</v>
-      </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="17"/>
-      <c r="F49" s="70"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="15"/>
+      <c r="B49" s="14"/>
+      <c r="D49" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11882,1132 +11714,1132 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="19" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="22">
+      <c r="A2" s="19">
         <v>217</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="23">
         <v>13</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="20">
         <v>27.003310500000001</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="20">
         <v>27.014621179999999</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22">
+      <c r="H2" s="18"/>
+      <c r="I2" s="19">
         <v>304</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="27">
+      <c r="M2" s="24">
         <v>14</v>
       </c>
-      <c r="N2" s="28">
+      <c r="N2" s="25">
         <v>36.295766399999998</v>
       </c>
-      <c r="O2" s="28">
+      <c r="O2" s="25">
         <v>36.349373589999999</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="29">
+      <c r="A3" s="26">
         <v>218</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="30">
         <v>14</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="27">
         <v>34.936078000000002</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="27">
         <v>35.019434599999997</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="29">
+      <c r="H3" s="18"/>
+      <c r="I3" s="26">
         <v>311</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="34">
+      <c r="M3" s="31">
         <v>15</v>
       </c>
-      <c r="N3" s="35">
+      <c r="N3" s="32">
         <v>25.2315033</v>
       </c>
-      <c r="O3" s="35">
+      <c r="O3" s="32">
         <v>25.26471154</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="29">
+      <c r="A4" s="26">
         <v>219</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="23">
         <v>15</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="27">
         <v>29.550842899999999</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="27">
         <v>29.769303539999999</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="29">
+      <c r="H4" s="18"/>
+      <c r="I4" s="26">
         <v>312</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="27">
+      <c r="M4" s="24">
         <v>16</v>
       </c>
-      <c r="N4" s="35">
+      <c r="N4" s="32">
         <v>18.3611033</v>
       </c>
-      <c r="O4" s="35">
+      <c r="O4" s="32">
         <v>18.980193509999999</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="29">
+      <c r="A5" s="26">
         <v>208</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="33">
+      <c r="D5" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="30">
         <v>16</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="27">
         <v>19.0443918</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="27">
         <v>18.991132220000001</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="29">
+      <c r="H5" s="18"/>
+      <c r="I5" s="26">
         <v>310</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="32" t="s">
+      <c r="L5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="34">
+      <c r="M5" s="31">
         <v>17</v>
       </c>
-      <c r="N5" s="35">
+      <c r="N5" s="32">
         <v>29.7545328</v>
       </c>
-      <c r="O5" s="35">
+      <c r="O5" s="32">
         <v>30.515518459999999</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="29">
+      <c r="A6" s="26">
         <v>209</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="26">
+      <c r="D6" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="23">
         <v>17</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="27">
         <v>22.288129099999999</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="27">
         <v>21.874367629999998</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="29">
+      <c r="H6" s="18"/>
+      <c r="I6" s="26">
         <v>303</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="K6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="27">
+      <c r="L6" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="24">
         <v>18</v>
       </c>
-      <c r="N6" s="35">
+      <c r="N6" s="32">
         <v>21.1775068</v>
       </c>
-      <c r="O6" s="35">
+      <c r="O6" s="32">
         <v>22.066696230000002</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="29">
+      <c r="A7" s="26">
         <v>207</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="33">
+      <c r="D7" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="30">
         <v>18</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="27">
         <v>22.405715799999999</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="27">
         <v>24.290905609999999</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="29">
+      <c r="H7" s="18"/>
+      <c r="I7" s="26">
         <v>94</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="K7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="34">
-        <v>19</v>
-      </c>
-      <c r="N7" s="35">
+      <c r="L7" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="31">
+        <v>19</v>
+      </c>
+      <c r="N7" s="32">
         <v>30.262476899999999</v>
       </c>
-      <c r="O7" s="35">
+      <c r="O7" s="32">
         <v>29.31375418</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="29">
+      <c r="A8" s="26">
         <v>220</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="26">
-        <v>19</v>
-      </c>
-      <c r="F8" s="30">
+      <c r="E8" s="23">
+        <v>19</v>
+      </c>
+      <c r="F8" s="27">
         <v>19.6507559</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="27">
         <v>20.149798959999998</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="29">
+      <c r="H8" s="18"/>
+      <c r="I8" s="26">
         <v>305</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="31" t="s">
+      <c r="K8" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="27">
+      <c r="L8" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="24">
         <v>20</v>
       </c>
-      <c r="N8" s="35">
+      <c r="N8" s="32">
         <v>29.344887100000001</v>
       </c>
-      <c r="O8" s="35">
+      <c r="O8" s="32">
         <v>29.078108709999999</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="29">
+      <c r="A9" s="26">
         <v>213</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="30">
         <v>20</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="27">
         <v>19.134828299999999</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="27">
         <v>18.96952456</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="29">
+      <c r="H9" s="18"/>
+      <c r="I9" s="26">
         <v>302</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="J9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="31" t="s">
+      <c r="K9" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="37" t="s">
+      <c r="L9" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="34">
+      <c r="M9" s="31">
         <v>21</v>
       </c>
-      <c r="N9" s="35">
+      <c r="N9" s="32">
         <v>22.000360199999999</v>
       </c>
-      <c r="O9" s="35">
+      <c r="O9" s="32">
         <v>22.563280850000002</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="29">
+      <c r="A10" s="26">
         <v>212</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="23">
         <v>21</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="27">
         <v>27.9844948</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="27">
         <v>27.836250119999999</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="29">
+      <c r="H10" s="18"/>
+      <c r="I10" s="26">
         <v>99</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="31" t="s">
+      <c r="K10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="37" t="s">
+      <c r="L10" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="27">
+      <c r="M10" s="24">
         <v>22</v>
       </c>
-      <c r="N10" s="35">
+      <c r="N10" s="32">
         <v>20.5210854</v>
       </c>
-      <c r="O10" s="35">
+      <c r="O10" s="32">
         <v>20.997673219999999</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="29">
+      <c r="A11" s="26">
         <v>199</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="30">
         <v>22</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="27">
         <v>22.9961682</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="27">
         <v>23.727400889999998</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="29">
+      <c r="H11" s="18"/>
+      <c r="I11" s="26">
         <v>301</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="31" t="s">
+      <c r="K11" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="37" t="s">
+      <c r="L11" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="34">
+      <c r="M11" s="31">
         <v>23</v>
       </c>
-      <c r="N11" s="35">
+      <c r="N11" s="32">
         <v>22.587573200000001</v>
       </c>
-      <c r="O11" s="35">
+      <c r="O11" s="32">
         <v>23.512876210000002</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="29">
+      <c r="A12" s="26">
         <v>203</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="23">
         <v>23</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="27">
         <v>16.217268300000001</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="27">
         <v>16.164334589999999</v>
       </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="29">
+      <c r="H12" s="18"/>
+      <c r="I12" s="26">
         <v>315</v>
       </c>
-      <c r="J12" s="30" t="s">
+      <c r="J12" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="39" t="s">
+      <c r="K12" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="32" t="s">
+      <c r="L12" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="34">
+      <c r="M12" s="31">
         <v>1</v>
       </c>
-      <c r="N12" s="30">
+      <c r="N12" s="27">
         <v>32.232714600000001</v>
       </c>
-      <c r="O12" s="35">
+      <c r="O12" s="32">
         <v>32.109248440000002</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="29">
+      <c r="A13" s="26">
         <v>202</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="30">
         <v>24</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="27">
         <v>14.2069676</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="27">
         <v>14.461426489999999</v>
       </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="29">
+      <c r="H13" s="18"/>
+      <c r="I13" s="26">
         <v>313</v>
       </c>
-      <c r="J13" s="30" t="s">
+      <c r="J13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="39" t="s">
+      <c r="K13" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="L13" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="34">
+      <c r="M13" s="31">
         <v>2</v>
       </c>
-      <c r="N13" s="30">
+      <c r="N13" s="27">
         <v>15.8065888</v>
       </c>
-      <c r="O13" s="35">
+      <c r="O13" s="32">
         <v>15.89621037</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="29">
+      <c r="A14" s="26">
         <v>216</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="30">
         <v>1</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="27">
         <v>20.8217751</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="27">
         <v>20.590849890000001</v>
       </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="29">
+      <c r="H14" s="18"/>
+      <c r="I14" s="26">
         <v>314</v>
       </c>
-      <c r="J14" s="30" t="s">
+      <c r="J14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="39" t="s">
+      <c r="K14" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="32" t="s">
+      <c r="L14" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="34">
+      <c r="M14" s="31">
         <v>3</v>
       </c>
-      <c r="N14" s="30">
+      <c r="N14" s="27">
         <v>37.5743808</v>
       </c>
-      <c r="O14" s="35">
+      <c r="O14" s="32">
         <v>38.263251840000002</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="29">
+      <c r="A15" s="26">
         <v>215</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="30">
         <v>2</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="27">
         <v>24.0252117</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="27">
         <v>24.15919027</v>
       </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="29">
+      <c r="H15" s="18"/>
+      <c r="I15" s="26">
         <v>316</v>
       </c>
-      <c r="J15" s="30" t="s">
+      <c r="J15" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="39" t="s">
+      <c r="K15" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="32" t="s">
+      <c r="L15" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="34">
+      <c r="M15" s="31">
         <v>4</v>
       </c>
-      <c r="N15" s="30">
+      <c r="N15" s="27">
         <v>34.339213000000001</v>
       </c>
-      <c r="O15" s="35">
+      <c r="O15" s="32">
         <v>35.393663490000002</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="29">
+      <c r="A16" s="26">
         <v>214</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="30">
         <v>3</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="27">
         <v>19.800802000000001</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="27">
         <v>20.000478019999999</v>
       </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="29">
+      <c r="H16" s="18"/>
+      <c r="I16" s="26">
         <v>309</v>
       </c>
-      <c r="J16" s="30" t="s">
+      <c r="J16" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="39" t="s">
+      <c r="K16" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" s="34">
+      <c r="L16" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="31">
         <v>5</v>
       </c>
-      <c r="N16" s="30">
+      <c r="N16" s="27">
         <v>21.580576700000002</v>
       </c>
-      <c r="O16" s="35">
+      <c r="O16" s="32">
         <v>21.516547580000001</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="29">
+      <c r="A17" s="26">
         <v>206</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="33">
+      <c r="D17" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="30">
         <v>4</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="27">
         <v>17.928066699999999</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="27">
         <v>18.164673260000001</v>
       </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="29">
+      <c r="H17" s="18"/>
+      <c r="I17" s="26">
         <v>308</v>
       </c>
-      <c r="J17" s="30" t="s">
+      <c r="J17" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="39" t="s">
+      <c r="K17" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="M17" s="34">
+      <c r="L17" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="31">
         <v>6</v>
       </c>
-      <c r="N17" s="30">
+      <c r="N17" s="27">
         <v>33.513917800000002</v>
       </c>
-      <c r="O17" s="35">
+      <c r="O17" s="32">
         <v>33.930421510000002</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="29">
+      <c r="A18" s="26">
         <v>210</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="33">
+      <c r="D18" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="30">
         <v>5</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="27">
         <v>22.528443200000002</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="27">
         <v>22.608784979999999</v>
       </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="29">
+      <c r="H18" s="18"/>
+      <c r="I18" s="26">
         <v>80</v>
       </c>
-      <c r="J18" s="30" t="s">
+      <c r="J18" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="39" t="s">
+      <c r="K18" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="34">
-        <v>7</v>
-      </c>
-      <c r="N18" s="30">
+      <c r="L18" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="31">
+        <v>7</v>
+      </c>
+      <c r="N18" s="27">
         <v>28.639117899999999</v>
       </c>
-      <c r="O18" s="35">
+      <c r="O18" s="32">
         <v>28.414697029999999</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="29">
+      <c r="A19" s="26">
         <v>205</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="33">
+      <c r="D19" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="30">
         <v>6</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="27">
         <v>18.692049099999998</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="27">
         <v>18.829284099999999</v>
       </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="29">
+      <c r="H19" s="18"/>
+      <c r="I19" s="26">
         <v>306</v>
       </c>
-      <c r="J19" s="30" t="s">
+      <c r="J19" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="39" t="s">
+      <c r="K19" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="37" t="s">
+      <c r="L19" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="M19" s="34">
+      <c r="M19" s="31">
         <v>8</v>
       </c>
-      <c r="N19" s="30">
+      <c r="N19" s="27">
         <v>33.473101200000002</v>
       </c>
-      <c r="O19" s="35">
+      <c r="O19" s="32">
         <v>34.975110540000003</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="29">
+      <c r="A20" s="26">
         <v>317</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="33">
-        <v>7</v>
-      </c>
-      <c r="F20" s="30">
+      <c r="E20" s="30">
+        <v>7</v>
+      </c>
+      <c r="F20" s="27">
         <v>19.171671400000001</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="27">
         <v>19.64939055</v>
       </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="29">
+      <c r="H20" s="18"/>
+      <c r="I20" s="26">
         <v>73</v>
       </c>
-      <c r="J20" s="30" t="s">
+      <c r="J20" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="39" t="s">
+      <c r="K20" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="37" t="s">
+      <c r="L20" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="M20" s="34">
+      <c r="M20" s="31">
         <v>9</v>
       </c>
-      <c r="N20" s="35">
+      <c r="N20" s="32">
         <v>22.000415199999999</v>
       </c>
-      <c r="O20" s="35">
+      <c r="O20" s="32">
         <v>21.896100820000001</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="29">
+      <c r="A21" s="26">
         <v>318</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="30">
         <v>8</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="27">
         <v>23.894288199999998</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="27">
         <v>24.22582293</v>
       </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="29">
+      <c r="H21" s="18"/>
+      <c r="I21" s="26">
         <v>307</v>
       </c>
-      <c r="J21" s="30" t="s">
+      <c r="J21" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="39" t="s">
+      <c r="K21" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="37" t="s">
+      <c r="L21" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="M21" s="34">
+      <c r="M21" s="31">
         <v>10</v>
       </c>
-      <c r="N21" s="35">
+      <c r="N21" s="32">
         <v>35.840026299999998</v>
       </c>
-      <c r="O21" s="35">
+      <c r="O21" s="32">
         <v>37.771244889999998</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="29">
+      <c r="A22" s="26">
         <v>211</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="30">
         <v>9</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="27">
         <v>26.881013299999999</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="27">
         <v>26.87121045</v>
       </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="29">
+      <c r="H22" s="18"/>
+      <c r="I22" s="26">
         <v>74</v>
       </c>
-      <c r="J22" s="30" t="s">
+      <c r="J22" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="39" t="s">
+      <c r="K22" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="37" t="s">
+      <c r="L22" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="M22" s="34">
+      <c r="M22" s="31">
         <v>11</v>
       </c>
-      <c r="N22" s="35">
+      <c r="N22" s="32">
         <v>39.8024451</v>
       </c>
-      <c r="O22" s="35">
+      <c r="O22" s="32">
         <v>39.789910079999999</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="29">
+      <c r="A23" s="26">
         <v>201</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="30">
         <v>10</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="27">
         <v>22.661890400000001</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="27">
         <v>24.77676924</v>
       </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="29">
+      <c r="H23" s="18"/>
+      <c r="I23" s="26">
         <v>103</v>
       </c>
-      <c r="J23" s="30" t="s">
+      <c r="J23" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="39" t="s">
+      <c r="K23" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="L23" s="38" t="s">
+      <c r="L23" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="M23" s="34">
+      <c r="M23" s="31">
         <v>12</v>
       </c>
-      <c r="N23" s="35">
+      <c r="N23" s="32">
         <v>32.731915399999998</v>
       </c>
-      <c r="O23" s="35">
+      <c r="O23" s="32">
         <v>36.066911660000002</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="29">
+      <c r="A24" s="26">
         <v>200</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="D24" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="30">
         <v>11</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F24" s="27">
         <v>18.273183199999998</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G24" s="27">
         <v>18.200332159999999</v>
       </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="40">
+      <c r="H24" s="18"/>
+      <c r="I24" s="37">
         <v>87</v>
       </c>
-      <c r="J24" s="41" t="s">
+      <c r="J24" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="42" t="s">
+      <c r="K24" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="43" t="s">
+      <c r="L24" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="M24" s="34">
+      <c r="M24" s="31">
         <v>13</v>
       </c>
-      <c r="N24" s="35">
+      <c r="N24" s="32">
         <v>14.9994417</v>
       </c>
-      <c r="O24" s="35">
+      <c r="O24" s="32">
         <v>14.898635609999999</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="40">
+      <c r="A25" s="37">
         <v>204</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="30">
         <v>12</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="27">
         <v>18.873535499999999</v>
       </c>
-      <c r="G25" s="30">
+      <c r="G25" s="27">
         <v>16.530102360000001</v>
       </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
     </row>
     <row r="26" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="40"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13058,13 +12890,13 @@
       <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="L1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="M1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="54" t="s">
+      <c r="N1" s="51" t="s">
         <v>14</v>
       </c>
     </row>
@@ -13100,16 +12932,16 @@
       <c r="J2" s="1">
         <v>1.6734300000000001E-2</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <v>317</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="7">
         <v>14.636954289225409</v>
       </c>
     </row>
@@ -13145,16 +12977,16 @@
       <c r="J3">
         <v>1.7683627356596805E-2</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>317</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="7">
         <v>14.636954289225409</v>
       </c>
     </row>
@@ -13190,16 +13022,16 @@
       <c r="J4">
         <v>1.7195949310896682E-2</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>317</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <v>14.6369542892254</v>
       </c>
     </row>
@@ -13235,16 +13067,16 @@
       <c r="J5">
         <v>1.7708941820028062E-2</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>317</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="7">
         <v>14.6369542892254</v>
       </c>
     </row>
@@ -13280,16 +13112,16 @@
       <c r="J6">
         <v>1.7080807545328654E-2</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>317</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="7">
         <v>14.6369542892254</v>
       </c>
     </row>
@@ -13325,16 +13157,16 @@
       <c r="J7">
         <v>1.6759012952366089E-2</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>317</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <v>14.6369542892254</v>
       </c>
     </row>
@@ -13370,16 +13202,16 @@
       <c r="J8">
         <v>1.5981244479962343E-2</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <v>317</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="7">
         <v>14.6369542892254</v>
       </c>
     </row>
@@ -13415,16 +13247,16 @@
       <c r="J9">
         <v>1.7509303016230202E-2</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>317</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="M9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="7">
         <v>14.6369542892254</v>
       </c>
     </row>
@@ -13460,16 +13292,16 @@
       <c r="J10">
         <v>1.6334830730109259E-2</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <v>317</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="M10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="7">
         <v>14.6369542892254</v>
       </c>
     </row>
@@ -13505,16 +13337,16 @@
       <c r="J11">
         <v>1.2628082690757481E-2</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <v>303</v>
       </c>
-      <c r="L11" s="46" t="s">
+      <c r="L11" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="8">
+      <c r="M11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="7">
         <v>16.085750398747635</v>
       </c>
     </row>
@@ -13550,16 +13382,16 @@
       <c r="J12">
         <v>1.248862225899876E-2</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <v>303</v>
       </c>
-      <c r="L12" s="46" t="s">
+      <c r="L12" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="8">
+      <c r="M12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="7">
         <v>16.085750398747635</v>
       </c>
     </row>
@@ -13595,16 +13427,16 @@
       <c r="J13">
         <v>1.0414636287945638E-2</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <v>303</v>
       </c>
-      <c r="L13" s="46" t="s">
+      <c r="L13" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="M13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" s="8">
+      <c r="M13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="7">
         <v>16.085750398747599</v>
       </c>
     </row>
@@ -13640,16 +13472,16 @@
       <c r="J14">
         <v>1.1219277069099047E-2</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <v>303</v>
       </c>
-      <c r="L14" s="46" t="s">
+      <c r="L14" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N14" s="8">
+      <c r="M14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="7">
         <v>16.085750398747599</v>
       </c>
     </row>
@@ -13685,16 +13517,16 @@
       <c r="J15">
         <v>1.2040729671787497E-2</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <v>303</v>
       </c>
-      <c r="L15" s="46" t="s">
+      <c r="L15" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" s="8">
+      <c r="M15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="7">
         <v>16.085750398747599</v>
       </c>
     </row>
@@ -13730,16 +13562,16 @@
       <c r="J16">
         <v>1.3178292218884193E-2</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <v>303</v>
       </c>
-      <c r="L16" s="46" t="s">
+      <c r="L16" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="M16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N16" s="8">
+      <c r="M16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" s="7">
         <v>16.085750398747599</v>
       </c>
     </row>
@@ -13775,16 +13607,16 @@
       <c r="J17">
         <v>1.2468488828234946E-2</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="7">
         <v>303</v>
       </c>
-      <c r="L17" s="46" t="s">
+      <c r="L17" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="M17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" s="8">
+      <c r="M17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="7">
         <v>16.085750398747599</v>
       </c>
     </row>
@@ -13820,16 +13652,16 @@
       <c r="J18">
         <v>1.1483425542024236E-2</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="7">
         <v>303</v>
       </c>
-      <c r="L18" s="46" t="s">
+      <c r="L18" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="M18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N18" s="8">
+      <c r="M18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="7">
         <v>16.085750398747599</v>
       </c>
     </row>
@@ -13865,16 +13697,16 @@
       <c r="J19" s="1">
         <v>1.1811510000000001E-2</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="7">
         <v>303</v>
       </c>
-      <c r="L19" s="46" t="s">
+      <c r="L19" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="M19" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N19" s="8">
+      <c r="M19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" s="7">
         <v>16.085750398747599</v>
       </c>
     </row>
@@ -13910,16 +13742,16 @@
       <c r="J20">
         <v>1.5177915038446994E-2</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="7">
         <v>210</v>
       </c>
-      <c r="L20" s="15" t="s">
+      <c r="L20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M20" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N20" s="8">
+      <c r="M20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="7">
         <v>11.425130911221268</v>
       </c>
     </row>
@@ -13955,16 +13787,16 @@
       <c r="J21">
         <v>1.4214570445508367E-2</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="7">
         <v>210</v>
       </c>
-      <c r="L21" s="15" t="s">
+      <c r="L21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M21" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N21" s="8">
+      <c r="M21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="7">
         <v>11.425130911221268</v>
       </c>
     </row>
@@ -14000,16 +13832,16 @@
       <c r="J22">
         <v>1.360965750518129E-2</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="7">
         <v>210</v>
       </c>
-      <c r="L22" s="15" t="s">
+      <c r="L22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M22" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N22" s="8">
+      <c r="M22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" s="7">
         <v>11.4251309112213</v>
       </c>
     </row>
@@ -14045,16 +13877,16 @@
       <c r="J23">
         <v>1.3965245905235048E-2</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="7">
         <v>210</v>
       </c>
-      <c r="L23" s="15" t="s">
+      <c r="L23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M23" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N23" s="8">
+      <c r="M23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" s="7">
         <v>11.4251309112213</v>
       </c>
     </row>
@@ -14090,16 +13922,16 @@
       <c r="J24">
         <v>1.4822278233903483E-2</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="7">
         <v>210</v>
       </c>
-      <c r="L24" s="15" t="s">
+      <c r="L24" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M24" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N24" s="8">
+      <c r="M24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" s="7">
         <v>11.4251309112213</v>
       </c>
     </row>
@@ -14135,16 +13967,16 @@
       <c r="J25">
         <v>1.6567587451394982E-2</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="7">
         <v>210</v>
       </c>
-      <c r="L25" s="15" t="s">
+      <c r="L25" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M25" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N25" s="8">
+      <c r="M25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" s="7">
         <v>11.4251309112213</v>
       </c>
     </row>
@@ -14180,16 +14012,16 @@
       <c r="J26">
         <v>1.3950242404375356E-2</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="7">
         <v>210</v>
       </c>
-      <c r="L26" s="15" t="s">
+      <c r="L26" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M26" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N26" s="8">
+      <c r="M26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26" s="7">
         <v>11.4251309112213</v>
       </c>
     </row>
@@ -14225,16 +14057,16 @@
       <c r="J27">
         <v>1.5984265100026637E-2</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="7">
         <v>210</v>
       </c>
-      <c r="L27" s="15" t="s">
+      <c r="L27" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M27" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N27" s="8">
+      <c r="M27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N27" s="7">
         <v>11.4251309112213</v>
       </c>
     </row>
@@ -14270,16 +14102,16 @@
       <c r="J28">
         <v>1.4244769692130635E-2</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="7">
         <v>210</v>
       </c>
-      <c r="L28" s="15" t="s">
+      <c r="L28" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M28" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N28" s="8">
+      <c r="M28" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N28" s="7">
         <v>11.4251309112213</v>
       </c>
     </row>
@@ -14315,16 +14147,16 @@
       <c r="J29">
         <v>1.3664486513681741E-2</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29" s="7">
         <v>210</v>
       </c>
-      <c r="L29" s="15" t="s">
+      <c r="L29" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M29" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N29" s="8">
+      <c r="M29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N29" s="7">
         <v>11.4251309112213</v>
       </c>
     </row>
@@ -14360,16 +14192,16 @@
       <c r="J30">
         <v>1.4527969888265994E-2</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="7">
         <v>210</v>
       </c>
-      <c r="L30" s="15" t="s">
+      <c r="L30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M30" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N30" s="8">
+      <c r="M30" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N30" s="7">
         <v>11.4251309112213</v>
       </c>
     </row>
@@ -14405,16 +14237,16 @@
       <c r="J31">
         <v>1.6860706045834454E-2</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31" s="7">
         <v>315</v>
       </c>
-      <c r="L31" s="48" t="s">
+      <c r="L31" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="M31" s="10" t="s">
+      <c r="M31" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N31" s="7">
         <v>18.337374858653217</v>
       </c>
     </row>
@@ -14450,16 +14282,16 @@
       <c r="J32">
         <v>1.7938650477887463E-2</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32" s="7">
         <v>315</v>
       </c>
-      <c r="L32" s="15" t="s">
+      <c r="L32" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M32" s="10" t="s">
+      <c r="M32" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N32" s="8">
+      <c r="N32" s="7">
         <v>18.337374858653217</v>
       </c>
     </row>
@@ -14495,16 +14327,16 @@
       <c r="J33">
         <v>1.6773851044512521E-2</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33" s="7">
         <v>315</v>
       </c>
-      <c r="L33" s="15" t="s">
+      <c r="L33" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M33" s="10" t="s">
+      <c r="M33" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N33" s="8">
+      <c r="N33" s="7">
         <v>18.337374858653199</v>
       </c>
     </row>
@@ -14540,16 +14372,16 @@
       <c r="J34">
         <v>1.6131692934324302E-2</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K34" s="7">
         <v>315</v>
       </c>
-      <c r="L34" s="15" t="s">
+      <c r="L34" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M34" s="10" t="s">
+      <c r="M34" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N34" s="8">
+      <c r="N34" s="7">
         <v>18.337374858653199</v>
       </c>
     </row>
@@ -14585,16 +14417,16 @@
       <c r="J35">
         <v>1.6169304798940878E-2</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K35" s="7">
         <v>315</v>
       </c>
-      <c r="L35" s="15" t="s">
+      <c r="L35" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M35" s="10" t="s">
+      <c r="M35" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N35" s="8">
+      <c r="N35" s="7">
         <v>18.337374858653199</v>
       </c>
     </row>
@@ -14630,16 +14462,16 @@
       <c r="J36">
         <v>1.7103332398164469E-2</v>
       </c>
-      <c r="K36" s="8">
+      <c r="K36" s="7">
         <v>315</v>
       </c>
-      <c r="L36" s="15" t="s">
+      <c r="L36" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M36" s="10" t="s">
+      <c r="M36" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N36" s="8">
+      <c r="N36" s="7">
         <v>18.337374858653199</v>
       </c>
     </row>
@@ -14675,16 +14507,16 @@
       <c r="J37">
         <v>1.7329060916203884E-2</v>
       </c>
-      <c r="K37" s="8">
+      <c r="K37" s="7">
         <v>315</v>
       </c>
-      <c r="L37" s="15" t="s">
+      <c r="L37" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M37" s="10" t="s">
+      <c r="M37" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N37" s="8">
+      <c r="N37" s="7">
         <v>18.337374858653199</v>
       </c>
     </row>
@@ -14720,16 +14552,16 @@
       <c r="J38">
         <v>1.7577390122048168E-2</v>
       </c>
-      <c r="K38" s="8">
+      <c r="K38" s="7">
         <v>315</v>
       </c>
-      <c r="L38" s="15" t="s">
+      <c r="L38" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M38" s="10" t="s">
+      <c r="M38" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N38" s="8">
+      <c r="N38" s="7">
         <v>18.337374858653199</v>
       </c>
     </row>
@@ -14765,16 +14597,16 @@
       <c r="J39">
         <v>1.6254099994822715E-2</v>
       </c>
-      <c r="K39" s="8">
+      <c r="K39" s="7">
         <v>315</v>
       </c>
-      <c r="L39" s="15" t="s">
+      <c r="L39" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M39" s="10" t="s">
+      <c r="M39" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N39" s="8">
+      <c r="N39" s="7">
         <v>18.337374858653199</v>
       </c>
     </row>
@@ -14810,16 +14642,16 @@
       <c r="J40">
         <v>1.6254099994822715E-2</v>
       </c>
-      <c r="K40" s="8">
+      <c r="K40" s="7">
         <v>315</v>
       </c>
-      <c r="L40" s="15" t="s">
+      <c r="L40" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M40" s="10" t="s">
+      <c r="M40" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N40" s="8">
+      <c r="N40" s="7">
         <v>18.337374858653199</v>
       </c>
     </row>
@@ -14827,7 +14659,7 @@
       <c r="A41">
         <v>7</v>
       </c>
-      <c r="B41" s="49">
+      <c r="B41" s="46">
         <v>11</v>
       </c>
       <c r="C41">
@@ -14855,16 +14687,16 @@
       <c r="J41">
         <v>1.0985405225000805E-2</v>
       </c>
-      <c r="K41" s="8">
+      <c r="K41" s="7">
         <v>317</v>
       </c>
-      <c r="L41" s="15" t="s">
+      <c r="L41" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M41" s="13" t="s">
+      <c r="M41" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N41" s="8">
+      <c r="N41" s="7">
         <v>14.636954289225409</v>
       </c>
     </row>
@@ -14872,7 +14704,7 @@
       <c r="A42">
         <v>7</v>
       </c>
-      <c r="B42" s="49">
+      <c r="B42" s="46">
         <v>11</v>
       </c>
       <c r="C42">
@@ -14900,16 +14732,16 @@
       <c r="J42">
         <v>1.1428000726919985E-2</v>
       </c>
-      <c r="K42" s="8">
+      <c r="K42" s="7">
         <v>317</v>
       </c>
-      <c r="L42" s="15" t="s">
+      <c r="L42" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M42" s="13" t="s">
+      <c r="M42" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N42" s="8">
+      <c r="N42" s="7">
         <v>14.636954289225409</v>
       </c>
     </row>
@@ -14917,7 +14749,7 @@
       <c r="A43">
         <v>7</v>
       </c>
-      <c r="B43" s="49">
+      <c r="B43" s="46">
         <v>11</v>
       </c>
       <c r="C43">
@@ -14945,16 +14777,16 @@
       <c r="J43">
         <v>1.1429961017461725E-2</v>
       </c>
-      <c r="K43" s="8">
+      <c r="K43" s="7">
         <v>317</v>
       </c>
-      <c r="L43" s="15" t="s">
+      <c r="L43" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M43" s="13" t="s">
+      <c r="M43" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N43" s="8">
+      <c r="N43" s="7">
         <v>14.6369542892254</v>
       </c>
     </row>
@@ -14962,7 +14794,7 @@
       <c r="A44">
         <v>7</v>
       </c>
-      <c r="B44" s="49">
+      <c r="B44" s="46">
         <v>11</v>
       </c>
       <c r="C44">
@@ -14990,16 +14822,16 @@
       <c r="J44">
         <v>1.1364165332850448E-2</v>
       </c>
-      <c r="K44" s="8">
+      <c r="K44" s="7">
         <v>317</v>
       </c>
-      <c r="L44" s="15" t="s">
+      <c r="L44" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M44" s="13" t="s">
+      <c r="M44" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N44" s="8">
+      <c r="N44" s="7">
         <v>14.6369542892254</v>
       </c>
     </row>
@@ -15007,7 +14839,7 @@
       <c r="A45">
         <v>7</v>
       </c>
-      <c r="B45" s="49">
+      <c r="B45" s="46">
         <v>11</v>
       </c>
       <c r="C45">
@@ -15035,16 +14867,16 @@
       <c r="J45">
         <v>1.124253626996346E-2</v>
       </c>
-      <c r="K45" s="8">
+      <c r="K45" s="7">
         <v>317</v>
       </c>
-      <c r="L45" s="15" t="s">
+      <c r="L45" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M45" s="13" t="s">
+      <c r="M45" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N45" s="8">
+      <c r="N45" s="7">
         <v>14.6369542892254</v>
       </c>
     </row>
@@ -15052,7 +14884,7 @@
       <c r="A46">
         <v>7</v>
       </c>
-      <c r="B46" s="49">
+      <c r="B46" s="46">
         <v>11</v>
       </c>
       <c r="C46">
@@ -15080,16 +14912,16 @@
       <c r="J46">
         <v>1.118162437882462E-2</v>
       </c>
-      <c r="K46" s="8">
+      <c r="K46" s="7">
         <v>317</v>
       </c>
-      <c r="L46" s="15" t="s">
+      <c r="L46" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M46" s="13" t="s">
+      <c r="M46" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N46" s="8">
+      <c r="N46" s="7">
         <v>14.6369542892254</v>
       </c>
     </row>
@@ -15097,7 +14929,7 @@
       <c r="A47">
         <v>7</v>
       </c>
-      <c r="B47" s="49">
+      <c r="B47" s="46">
         <v>11</v>
       </c>
       <c r="C47">
@@ -15125,16 +14957,16 @@
       <c r="J47">
         <v>1.0753174316118101E-2</v>
       </c>
-      <c r="K47" s="8">
+      <c r="K47" s="7">
         <v>317</v>
       </c>
-      <c r="L47" s="15" t="s">
+      <c r="L47" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M47" s="13" t="s">
+      <c r="M47" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N47" s="8">
+      <c r="N47" s="7">
         <v>14.6369542892254</v>
       </c>
     </row>
@@ -15142,7 +14974,7 @@
       <c r="A48">
         <v>7</v>
       </c>
-      <c r="B48" s="49">
+      <c r="B48" s="46">
         <v>11</v>
       </c>
       <c r="C48">
@@ -15170,16 +15002,16 @@
       <c r="J48">
         <v>1.1499239622453477E-2</v>
       </c>
-      <c r="K48" s="8">
+      <c r="K48" s="7">
         <v>317</v>
       </c>
-      <c r="L48" s="15" t="s">
+      <c r="L48" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M48" s="13" t="s">
+      <c r="M48" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N48" s="8">
+      <c r="N48" s="7">
         <v>14.6369542892254</v>
       </c>
     </row>
@@ -15187,7 +15019,7 @@
       <c r="A49">
         <v>7</v>
       </c>
-      <c r="B49" s="49">
+      <c r="B49" s="46">
         <v>11</v>
       </c>
       <c r="C49">
@@ -15215,16 +15047,16 @@
       <c r="J49">
         <v>1.1260136372743725E-2</v>
       </c>
-      <c r="K49" s="8">
+      <c r="K49" s="7">
         <v>317</v>
       </c>
-      <c r="L49" s="15" t="s">
+      <c r="L49" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M49" s="13" t="s">
+      <c r="M49" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N49" s="8">
+      <c r="N49" s="7">
         <v>14.6369542892254</v>
       </c>
     </row>
